--- a/src/test/resources/TestData/Team23-RecipeScraping-Data.xlsx
+++ b/src/test/resources/TestData/Team23-RecipeScraping-Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NumpyNinja_Projects\Team23_RecipeHackathon_Dec2023\Team23-ExtractionCrew-RecipeScraping\src\test\resources\TestData\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="1639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3649" uniqueCount="1873">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -10879,12 +10879,1506 @@
   <si>
     <t>w</t>
   </si>
+  <si>
+    <t>Hypothyroidism</t>
+  </si>
+  <si>
+    <t>Recipe# 40323
+08 Nov 22</t>
+  </si>
+  <si>
+    <t>How To Sprout Moong, Mung Beans</t>
+  </si>
+  <si>
+    <t>For Moong Sprouts
+1 cup moong (whole green gram) , washed and drained
+salt to taste
+1/4 tsp turmeric powder (haldi)</t>
+  </si>
+  <si>
+    <t>For moong sprouts
+To make healthy mung beans sprouts, combine the moong and enough water in a deep bowl, cover with a lid and keep aside to soak for 6 hours.
+Drain completely and tie them in a muslin cloth. Keep aside in a warm place to sprout for 10 to 12 hours.
+Combine the moong sprouts, 1¼ cups of water, salt and turmeric powder in a deep non-stick pan and mix well.
+Cover with a lid and cook on a medium flame for 15 minutes, while stirring occasionally.
+Use the healthy mung beans sprouts as required.</t>
+  </si>
+  <si>
+    <t>Energy 256 cal
+Protein 18.4 g
+Carbohydrates 43.5 g
+Fiber 12.8 g
+Fat 1 g
+Cholesterol 0 mg
+Sodium 21.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/how-to-sprout-moong-mung-beans-40323r</t>
+  </si>
+  <si>
+    <t>Recipe# 42296
+07 Sep 22</t>
+  </si>
+  <si>
+    <t>Quinoa Avocado Veg Healthy Office Salad</t>
+  </si>
+  <si>
+    <t>1/4 cup cooked quinoa
+1/2 cup riped avocado cubes
+1/2 cup chopped zucchini
+1/2 cup coloured capsicum cubes
+1/4 cup mushroom (khumbh) cubes
+1/4 cup cherry tomato halves
+1 cup iceberg lettuce , torn into pieces
+1 tbsp alfalfa sprouts
+1 tsp olive oil
+sea salt (khada namak) to taste
+To Be Mixed Into A Dressing
+1 tbsp olive oil
+1 tsp lemon juice
+1/4 tsp grated garlic (lehsun)
+sea salt (khada namak) to taste</t>
+  </si>
+  <si>
+    <t>Heat the olive oil in a griller pan or a broad non-stick pan, add the zucchini and sauté on a medium flame for 1 minute.
+Add the coloured capsicum and sauté on a medium flame for 1 minute.
+Add the mushroom and little sea salt and sauté on a medium flame for 1 minute.
+Cool put in a lunch box, along with other ingredients. It can be taken to work with a dressing in a separate small container.
+Just before eating, mix the dressing and toss well. Eat immediately.</t>
+  </si>
+  <si>
+    <t>Energy 459 cal
+Protein 7.7 g
+Carbohydrates 22 g
+Fiber 6.9 g
+Fat 38.9 g
+Cholesterol 0 mg
+Sodium 60.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/quinoa-avocado-veg-healthy-office-salad-42296r</t>
+  </si>
+  <si>
+    <t>Recipe# 39929
+23 Nov 23</t>
+  </si>
+  <si>
+    <t>Brown Rice ( Pressure Cooker Method)</t>
+  </si>
+  <si>
+    <t>How to cook brown rice
+To cook brown rice, soak the brown rice in enough water for 30 minutes and drain well.
+Combine the brown rice along with 2 cups of water in a pressure cooker and pressure cook for 7 whistles.
+Allow the steam to escape before opening the lid.
+Separate each grain of the brown rice lightly with a fork. Use as required.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/brown-rice--pressure-cooker-method-39929r</t>
+  </si>
+  <si>
+    <t>Recipe# 6229
+04 Sep 22</t>
+  </si>
+  <si>
+    <t>Beetroot Juice, Healthy Beetroot Juice</t>
+  </si>
+  <si>
+    <t>For Beetroot Juice
+1 1/2 cups beetroot cubes
+1 1/2 cups carrot cubes
+2 tbsp chopped parsley
+2 tbsp chopped celery (ajmoda)
+1/4 tsp black salt (sanchal)
+12 ice-cubes</t>
+  </si>
+  <si>
+    <t>Beetroot juice in blender
+Combine the beetroot cubes, carrots cubes, chopped parsley, chopped celery, black salt ( kala namak), 1 1/2 cups of water and 12 ice-cubes in a high quality blender jar (like vitamix) and blend well.
+Serve immediately.
+Mixer method
+This recipe doesn’t turn out good in a mixer jar because the texture of ingredients like carrots and beetroot are very hard.
+Handy tip:
+This recipe makes use of unpeeled fruits and vegetables, hence take care to clean and wash them well before chopping, to get rid of dirt, germs and chemical residues.</t>
+  </si>
+  <si>
+    <t>Energy 53 cal
+Protein 1.9 g
+Carbohydrates 11.1 g
+Fiber 4.5 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 69 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/beetroot-juice-healthy-beetroot-juice-6229r</t>
+  </si>
+  <si>
+    <t>Recipe# 40586
+09 May 22</t>
+  </si>
+  <si>
+    <t>Masoor Dal, Easy Masoor Dal Recipe</t>
+  </si>
+  <si>
+    <t>3/4 cup masoor dal (split red lentil) , washed and drained
+salt to taste
+1 tbsp oil
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1/2 cup finely chopped onions
+6 curry leaves (kadi patta)
+1 tsp garlic (lehsun) paste
+1 cup chopped tomatoes
+1 tsp chilli powder
+1 tsp coriander (dhania) powder
+1 tsp ginger-green chilli paste
+1/2 tsp turmeric powder (haldi)
+1/4 cup finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Combine the masoor dal, little salt and 2 cups of water in a pressure cooker and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the ghee in a deep non-stick pan and add the cumin seeds and asafoetida and sauté on a medium flame for 30 seconds.
+Add the onions, curry leaves and garlic paste and sauté on a medium flame for 1 minute.
+Add the tomatoes, chilli powder, coriander powder, ginger-green chilli paste, turmeric powder and salt, mix well and cook on a medium flame for 2 minutes ,while stirring occasionally.
+Add the cooked masoor dal, 1 cup of water and coriander, mix well and cook on a medium flame for 4 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 148 cal
+Protein 7.8 g
+Carbohydrates 20.1 g
+Fiber 3.8 g
+Fat 4.1 g
+Cholesterol 0 mg
+Sodium 8.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masoor-dal-easy-masoor-dal-recipe-40586r</t>
+  </si>
+  <si>
+    <t>Recipe# 42333
+05 Aug 22</t>
+  </si>
+  <si>
+    <t>Egg Paratha</t>
+  </si>
+  <si>
+    <t>For The Parathas
+3/4 cup whole wheat flour (gehun ka atta)
+1/2 tsp carom seeds (ajwain)
+salt to taste
+whole wheat flour (gehun ka atta) for rolling
+1/2 tsp ghee for spreading
+1 tsp oil for cooking
+For The Egg Mixture
+3 eggs
+1/4 cup finely chopped onions
+1/4 cup finely chopped tomatoes
+2 tbsp finely chopped coriander (dhania)
+1 tsp finely chopped green chillies
+salt to taste
+Other Ingredients For Egg Paratha
+2 tsp oil for greasing
+2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>For the parathas
+Combine all the ingredients in a deep bowl and knead into a soft dough using enough water.
+Divide the dough into 2 equal portions.
+Roll a portion of the dough into 150 mm. (6”) diameter circle using a little whole wheat flour for rolling. Spread ¼ tsp of ghee evenly over it.
+Fold over from one end to another end slightly overlapping each other.
+Then fold again from one end to another end overlapping each other.
+Roll again into a 175 mm. (7”) diameter circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook the paratha using ½ tsp of oil till it turns golden brown in colour from both the sides
+Repeat steps 3 to 7 to make 1 more paratha. Keep aside.
+For the egg mixture
+Break the eggs in a deep bowl and beat well using a fork.
+Add all the other ingredients and beat well. Keep aside.
+How to proceed
+To make egg paratha, heat a non-stick tava (griddle) and grease it using 1 tsp of oil. Pour half the egg mixture on it.
+Place a prepared paratha on it and press it lightly. Cook using 1 tsp of oil.
+Turnover and cook again till it is cooked.
+Cut into 4 equal portions using a cutter or a sharp knife.
+Repeat steps 1 to 4 to make 1 more egg paratha.
+Serve egg paratha immediately.</t>
+  </si>
+  <si>
+    <t>Energy 432 cal
+Protein 16.4 g
+Carbohydrates 38.3 g
+Fiber 6.5 g
+Fat 24.5 g
+Cholesterol 0 mg
+Sodium 14.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/egg-paratha-42333r</t>
+  </si>
+  <si>
+    <t>Recipe# 22378
+01 Jul 22</t>
+  </si>
+  <si>
+    <t>Barley Moong Dal Vegetable Khichdi, Jau Dal Khichdi</t>
+  </si>
+  <si>
+    <t>For Barley Moong Dal Vegetable Khichdi
+1/2 cup barley (jau) , washed and drained
+3/4 cup yellow moong dal (split yellow gram) , washed and drained
+1 cup grated bottle gourd (doodhi / lauki)
+1 cup grated carrot
+1/2 tbsp ghee
+1 tsp cumin seeds (jeera)
+1/2 tsp asafoetida (hing)
+3 peppercorns (kalimirch)
+1 bay leaf (tejpatta)
+2 cloves (laung / lavang)
+1/2 tsp turmeric powder (haldi)
+salt to taste</t>
+  </si>
+  <si>
+    <t>For barley moong dal vegetable khichdi
+To make barley moong dal vegetable khichdi, heat the ghee in a pressure cooker and add the cumin seeds.
+When the seeds crackle, add the asafoetida, peppercorns, bayleaf and cloves and sauté on a medium flame for a few seconds.
+Add the bottle gourd and carrot and sauté on a medium flame for 1 minute.
+Add the barley, moong dal, turmeric powder, salt and 4½ cups of hot water, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Serve the barley moong dal vegetable khichdi immediately.</t>
+  </si>
+  <si>
+    <t>Energy 148 cal
+Protein 7.4 g
+Carbohydrates 25.8 g
+Fiber 3.6 g
+Fat 1.7 g
+Cholesterol 0 mg
+Sodium 14.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/barley-moong-dal-vegetable-khichdi-jau-dal-khichdi-22378r</t>
+  </si>
+  <si>
+    <t>Recipe# 32449
+12 May 22</t>
+  </si>
+  <si>
+    <t>Moong Dal Ki Chaat (100 Calorie Snacks)</t>
+  </si>
+  <si>
+    <t>For Moong Dal ki Chaat
+1/2 cup yellow moong dal (split yellow gram)
+salt to taste
+1/2 cup grated carrot
+1/2 cup pomegranate (anar)
+1/2 cup chopped spring onions
+1/4 cup chopped raw mangoes
+2 tbsp finely chopped mint leaves (phudina)
+2 tbsp finely chopped coriander (dhania)
+2 tsp finely chopped green chillies
+1 tsp chaat masala
+4 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>For moong dal ki chaat
+To make moong dal ki chaat, clean, wash and soak the moong dal in enough water for ½ hour and drain well.
+Combine 3 cups of water, moong dal and salt in a deep non-stick pan and cook it on a medium flame till it is half done, while stirring occasionally. Ensure that each grain of the dal is separate.
+Strain the dal using a strainer and keep aside to cool for 10 minutes.
+Combine all the ingredients, including the moong dal, in a large bowl and toss well.
+Serve the moong dal ki chaat immediately.</t>
+  </si>
+  <si>
+    <t>Energy 100 cal
+Protein 5.5 g
+Carbohydrates 18.8 g
+Fiber 3.3 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 10.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/moong-dal-ki-chaat-100-calorie-snacks-32449r</t>
+  </si>
+  <si>
+    <t>Recipe# 6212
+22 Aug 22</t>
+  </si>
+  <si>
+    <t>Ginger Melon Juice, Ginger Watermelon Juice</t>
+  </si>
+  <si>
+    <t>For Ginger Melon Juice
+2 cups watermelon (tarbuj) cubes
+12 mm piece ginger (adrak) , finely chopped
+1/2 tsp lemon juice
+12 ice-cubes</t>
+  </si>
+  <si>
+    <t>How to make ginger melon juice in a mixer
+To make ginger melon juice in a mixer, combine the watermelon, ginger, lemon juice and ice-cubes in a mixer jar and blend till smooth.
+Serve immediately.
+How to make in a juicer (hopper)
+To make ginger melon juice in a juicer (hopper), add watermelon cubes and ginger pieces a few at a time in the juicer / hopper.
+Add 6 ice-cubes in each of the 2 glasses and pour equal quantities of juice over it. Note that some amount of fiber will be lost while making juice in a juicer.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 53 cal
+Protein 0.7 g
+Carbohydrates 11 g
+Fiber 2 g
+Fat 0.7 g
+Cholesterol 0 mg
+Sodium 86.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/ginger-melon-juice-ginger-watermelon-juice-6212r</t>
+  </si>
+  <si>
+    <t>Recipe# 40748
+29 Apr 19</t>
+  </si>
+  <si>
+    <t>Zucchini, Bell Pepper and Sprouted Moong Salad</t>
+  </si>
+  <si>
+    <t>1/4 cup finely chopped zucchini (unpeeled)
+1/4 cup finely chopped red capsicum
+1/4 cup finely chopped yellow capsicum
+1/4 cup finely chopped green capsicum
+2 cups parboiled sprouted moong (whole green gram)
+3/4 cup chopped apple (unpeeled and deseeded)
+1 tbsp olive oil
+2 tsp lemon juice
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and toss well. Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 161 cal
+Protein 8 g
+Carbohydrates 22.6 g
+Fiber 6.6 g
+Fat 4.4 g
+Cholesterol 0 mg
+Sodium 16.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/zucchini-bell-pepper-and-sprouted-moong-salad-40748r</t>
+  </si>
+  <si>
+    <t>Recipe# 39020
+29 Jul 22</t>
+  </si>
+  <si>
+    <t>Carrot and Red Pepper Juice</t>
+  </si>
+  <si>
+    <t>For Carrot and Red Pepper Juice
+3/4 cup peeled carrot cubes
+3/4 cup red capscium cubes
+1 cup deseeded tomato cubes , see handy tip
+10 to 12 ice-cubes</t>
+  </si>
+  <si>
+    <t>Carrot and red pepper juice in vitamix
+Combine the carrots cubes, capsicum cubes, tomato cubes, ½ cup of water and ice-cubes in a high quality blender jar (like vitamix) and blend well.
+Serve immediately.
+Carrot and red pepper juice in juicer (hopper)
+Add the carrot cubes, capsicum cubes and tomato cubes a few at a time in a juicer (hopper).
+Add 2 to 3 ice-cubes in each of the 4 glasses and pour equal quantities of juice over it. Note that some amount of fiber will be lost while making juice in a juicer.
+Serve immediately.
+Handy tip:
+2 tomatoes will give approx. 1 cup of deseeded tomato cubes.</t>
+  </si>
+  <si>
+    <t>Energy 17 cal
+Protein 0.7 g
+Carbohydrates 3.3 g
+Fiber 1.5 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 8.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-and-red-pepper-juice-39020r</t>
+  </si>
+  <si>
+    <t>Recipe# 40846
+05 Aug 22</t>
+  </si>
+  <si>
+    <t>Red Capsicum Carrot and Apple Juice</t>
+  </si>
+  <si>
+    <t>For Red Capsicum Carrot and Apple Juice
+1 cup red capscium cubes
+1 cup peeled carrot cubes
+1 cup apple cubes
+10 to 12 ice-cubes</t>
+  </si>
+  <si>
+    <t>Red capsicum, carrot and apple juice in vitamix
+To make red capsicum, carrot and apple juice, combine the red capsicum cubes, carrot cubes, apple cubes, 1 cup of water and ice cubes in a high quality blender jar (like vitamix) and blend well till smooth and frothy.
+Serve immediately.
+Red capsicum, carrot and apple juice in juicer
+Add the red capsicum cubes, carrot cubes and apple cubes a few at a time in the hopper.
+Add 5 to 6 ice-cubes in each of the 2 glasses and pour equal quantities of juice over it. Note that some amount of fiber will be lost while making juice in a juicer.
+Serve the red capsicum, carrot and apple juice immediately.
+Handy tip:
+This recipe makes use of unpeeled apples, hence take care to clean and wash them well before chopping, to get rid of dirt, germs and chemical residues.</t>
+  </si>
+  <si>
+    <t>Energy 32 cal
+Protein 0.6 g
+Carbohydrates 6.8 g
+Fiber 2.3 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 14.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/red-capsicum-carrot-and-apple-juice-40846r</t>
+  </si>
+  <si>
+    <t>Recipe# 36892
+23 Aug 22</t>
+  </si>
+  <si>
+    <t>Apple Carrot Juice</t>
+  </si>
+  <si>
+    <t>For Apple Carrot Juice
+2 cups carrot peeled and cut into thick strips
+1 1/4 cups unpeeled apple wedges
+1/2 tsp roughly chopped ginger (adrak)
+For Serving With Apple Carrot Juice
+10 to 12 ice-cubes</t>
+  </si>
+  <si>
+    <t>Apple carrot juice in blender
+Combine the carrots cubes, apple cubes, ginger (adrak),1 cup of water and 10 to 12 ice-cubes in a high quality blender jar (like vitamix) and blend well.
+Serve immediately.
+Apple carrot juice in juicer
+Add the carrot cubes, apple cubes and ginger a few at a time in a juicer (hopper).
+Add 2 to 3 ice-cubes in each of the 4 small glasses or 2 big glasses and pour equal quantities of juice over it. Note that some amount of fiber will be lost while making juice in a juicer.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 103 cal
+Protein 1.3 g
+Carbohydrates 23.1 g
+Fiber 7.9 g
+Fat 0.6 g
+Cholesterol 0 mg
+Sodium 65.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-carrot-juice-36892r</t>
+  </si>
+  <si>
+    <t>Recipe# 40441
+25 Sep 20</t>
+  </si>
+  <si>
+    <t>Minty Apple Salad</t>
+  </si>
+  <si>
+    <t>For Minty Apple Salad
+1/4 cup finely chopped mint leaves (phudina)
+3 cups apple cubes
+1 tsp lemon juice
+1 tsp ginger (adrak) juice , refer handy tip
+1 tsp honey
+salt and to taste</t>
+  </si>
+  <si>
+    <t>For minty apple salad
+Combine all the ingredients in a deep bowl and toss well.
+Serve the minty apple salad immediately.
+Handy tip:
+2 tbsp of grated ginger when placed in a muslin cloth and squeezed gives 2 tsp of ginger juice.</t>
+  </si>
+  <si>
+    <t>Energy 81 cal
+Protein 0.4 g
+Carbohydrates 18.4 g
+Fiber 4 g
+Fat 0.7 g
+Cholesterol 0 mg
+Sodium 32.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/minty-apple-salad-40441r</t>
+  </si>
+  <si>
+    <t>Recipe# 7534
+15 Jun 21</t>
+  </si>
+  <si>
+    <t>Dry Masala Chana Dal, Jain Cucumber Chana Dal Sabzi</t>
+  </si>
+  <si>
+    <t>-jain--jain--jain-</t>
+  </si>
+  <si>
+    <t>For Dry Masala Chana Dal
+1/2 cup cucumber cubes
+3/4 cup chana dal (split bengal gram)
+1 tsp cumin seeds (jeera)
+1 tsp green chilli paste
+a pinch of turmeric powder (haldi)
+1/2 tsp chilli powder
+1 tbsp oil
+salt to taste</t>
+  </si>
+  <si>
+    <t>For dry masala chana dal
+To make dry masala chana dal, wash and soak the chana dal in enough hot water in a deep bowl for 1 hour. Drain and keep aside.
+Heat the oil in a deep non-stick pan, add the cumin seeds and sauté on a medium flame for 30 seconds.
+Add the soaked chana dal, green chilli paste, turmeric powder, chilli powder and ¼ cup water, mix well and cover and cook on a medium flame for 6 minutes, while stirring occasionally.
+Add the cucumber, salt and more ¼ cup water, mix well and cover and cook on a medium flame for 3 minutes, while stirring occasionally.
+Serve the dry masala chana dal hot.</t>
+  </si>
+  <si>
+    <t>Energy 234 cal
+Protein 10.5 g
+Carbohydrates 30.4 g
+Fiber 8.2 g
+Fat 7.8 g
+Cholesterol 0 mg
+Sodium 38.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/dry-masala-chana-dal-jain-cucumber-chana-dal-sabzi-7534r</t>
+  </si>
+  <si>
+    <t>Recipe# 42022
+23 Sep 19</t>
+  </si>
+  <si>
+    <t>Bengali Style Veg Chops, Healthy Low Salt Snack</t>
+  </si>
+  <si>
+    <t>1/4 cup finely chopped onions
+1/2 cup grated carrot
+1/4 cup grated beetroot
+1/4 cup boiled and mashed potatoes
+1/2 tsp fennel seeds (saunf)
+1/2 tsp cumin seeds (jeera)
+1/2 tsp coriander (dhania) seeds
+1 tsp oil
+1/2 tsp ginger (adrak) paste
+1 tsp finely chopped green chillies
+1/2 tsp chilli powder
+1/4 tsp dried mango powder (amchur)
+1/4 tsp salt
+1/4 tsp freshly ground black pepper (kalimirch)
+1 tsp oil brush (for greasing) and cooking</t>
+  </si>
+  <si>
+    <t>Combine the fennel seeds, cumin seeds and coriander seeds in a mortal pestle (khalbatta) till coarse. Keep aside.
+Heat the oil in a broad non-stick pan, add the ginger paste and green chillies and sauté on a medium flame for 30 seconds.
+Add the onions and sauté on a medium flame for 1 minute.
+Add the carrot and beetroot and sauté on a medium flame for 1 minute.
+Add the chilli powder, prepared coarsely crushed powder, dried mango powder, salt and 1 tbsp of water, mix well and cook on a medium flame for 30 seconds.
+Transfer the mixture into a big plate, cool slightly, add the potatoes and pepper powder and mix very well.
+Divide the mixture into 12 equal portions and roll each portion into an oblong shape.
+Heat a non-stick tava (griddle) and grease it using the remaining ½ tsp of oil.
+Place the chops on it and cook using ½ tsp of oil till they turn golden brown in colour from both the sides.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 13 cal
+Protein 0.1 g
+Carbohydrates 1.2 g
+Fiber 0.3 g
+Fat 0.8 g
+Cholesterol 0 mg
+Sodium 67 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bengali-style-veg-chops-healthy-low-salt-snack-42022r</t>
+  </si>
+  <si>
+    <t>Recipe# 40706
+03 Oct 23</t>
+  </si>
+  <si>
+    <t>Sprouted Matki Uttapam</t>
+  </si>
+  <si>
+    <t>For Sprouted Matki Uttapam
+1 1/2 cups sprouted matki (moath beans)
+1/4 cup besan (bengal gram flour)
+1/4 cup finely chopped coriander (dhania)
+1/4 cup chopped tomatoes
+1/4 cup grated carrot
+2 tsp ginger-green chilli paste
+1/4 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+salt to taste
+2 tsp oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>For sprouted matki uttapam
+To make sprouted matki uttapam, combine the sprouted matki and ½ cup of water in a mixer and blend till smooth.
+Transfer the mixture into a deep bowl, add besan, coriander, tomatoes, carrot, ginger-green chilli paste, cumin seeds, hing, salt and mix well.
+Grease a non-stick pan with ¼ tsp of oil.
+Pour a ladleful of the batter and spread in a circular motion to make a 125 mm. (5") diameter thick circle.
+Cook till they turn brown in colour from both the sides using a little oil.
+Serve the sprouted matki uttapam immediately with coconut chutney.</t>
+  </si>
+  <si>
+    <t>Energy 92 cal
+Protein 5.2 g
+Carbohydrates 13.2 g
+Fiber 1.7 g
+Fat 2.1 g
+Cholesterol 0 mg
+Sodium 11 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sprouted-matki-uttapam-40706r</t>
+  </si>
+  <si>
+    <t>Recipe# 41758
+20 Feb 23</t>
+  </si>
+  <si>
+    <t>Oats Appe, Oats Vegetable Appe</t>
+  </si>
+  <si>
+    <t>For Oats Appe
+1/2 cup powered quick cooking rolled oats
+1/2 cup finely chopped spring onions whites and greens
+1/2 cup urad dal (split black lentils)
+2 tsp crushed black pepper (kalimirch)
+salt to taste
+2 tsp oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>For oats appe
+To make oats appe, soak the urad dal in enough water in a deep bowl and keep aside to soak for 1 hour. Drain well.
+Blend the urad dal in a mixer using ¼ cup of water till smooth.
+Transfer the mixture into a deep bowl, add the oats, spring onions, crushed black pepper and salt and mix very well.
+Heat an appe mould on a medium flame and grease it using ¼ tsp of oil. Pour 1 tbsp of the batter into each mould and cook using ¼ tsp of oil till the lower surface becomes golden brown and then turn each appe upside down using a fork so as to cook them from the other side as well.
+Repeat step 4 to make more appes.
+Serve the oats appe immediately.</t>
+  </si>
+  <si>
+    <t>Energy 43 cal
+Protein 2.3 g
+Carbohydrates 6.3 g
+Fiber 1.2 g
+Fat 1 g
+Cholesterol 0 mg
+Sodium 3.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-appe-oats-vegetable-appe-41758r</t>
+  </si>
+  <si>
+    <t>Recipe# 41653
+18 Apr 19</t>
+  </si>
+  <si>
+    <t>Oats Nimki, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>1/2 cup powdered oats
+1/2 cup whole wheat flour (gehun ka atta)
+1/4 tsp roasted and crushed cumin seeds (jeera)
+1/4 crushed peppercorns (kalimirch)
+1/8 tsp salt
+2 tsp oil
+whole wheat flour (gehun ka atta) for rolling</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and knead into semi-stiff dough using enough water.
+Divide the dough into 6 equal portions.
+Roll out each portion into a thin round circle of 150 mm. (6”) diameter using a little whole wheat flour for rolling.
+Cut each circle into 8 equal size long strips and keep aside. You will get 48 strips in all.
+Heat a non-stick tava (griddle) and cook the strips, a few at a time, on hot tava (griddle), while pressing them using folded muslin cloth or khakhra press, till they turn crisp and golden brown in colour from both the sides.
+Cool completely and serve or store in an air-tight container</t>
+  </si>
+  <si>
+    <t>Energy 76 cal
+Protein 2.4 g
+Carbohydrates 11.6 g
+Fiber 0.9 g
+Fat 2.3 g
+Cholesterol 0 mg
+Sodium 66.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-nimki-low-salt-recipe-41653r</t>
+  </si>
+  <si>
+    <t>Recipe# 41505
+06 Feb 23</t>
+  </si>
+  <si>
+    <t>Minty Quinoa, Ibs Recipe</t>
+  </si>
+  <si>
+    <t>For Minty Quinoa
+1/4 cup finely chopped mint leaves (phudina) leaves
+1 cup quinoa , washed and drained
+2 tsp olive oil
+1/2 cup chopped carrot
+1/4 cup chopped celery (ajmoda)
+1/2 tsp finely chopped green chillies
+1/4 cup chopped red pumpkin (bhopla / kaddu)
+2 bay leaves (tejpatta)
+salt to taste
+freshly ground black pepper (kalimirch) to taste</t>
+  </si>
+  <si>
+    <t>For minty quinoa for ibs
+To make minty quinoa heat oil in a deep non-stick pan, add the carrots, celery and green chillies sauté on a medium flame for 2 minutes.
+Add the quinoa, red pumpkin, bayleaves, salt, pepper powder and 2½ cups of water and mix well. Cover with a lid and cook on a slow flame for 15 to 16 minutes, while stirring occasionally.
+Add the mint leaves and mix well.
+Serve minty quinoa immediately.</t>
+  </si>
+  <si>
+    <t>Energy 208 cal
+Protein 7 g
+Carbohydrates 36.7 g
+Fiber 11 g
+Fat 5.5 g
+Cholesterol 0 mg
+Sodium 14.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/minty-quinoa-ibs-recipe-41505r</t>
+  </si>
+  <si>
+    <t>Recipe# 41019
+13 Oct 21</t>
+  </si>
+  <si>
+    <t>Oats, Vegetable and Brown Rice Khichdi</t>
+  </si>
+  <si>
+    <t>For Oats , Vegetable and Brown Rice Khichdi
+1/2 cup quick cooking rolled oats
+3/4 cup brown rice
+2 tbsp yellow moong dal (split yellow gram) , washed and drained
+2 tsp oil
+1/2 cup finely chopped onions
+1 tsp garlic (lehsun) paste
+1/2 tsp ginger (adrak) paste
+1/4 cup chopped french beans
+1/4 cup chopped carrot
+1/4 cup green peas
+1/2 tsp chilli powder
+1/2 tsp garam masala
+2 tbsp finely chopped coriander (dhania)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Clean, wash and soak the brown rice in enough water in a deep bowl for 30 minutes. Drain well and keep aside.
+Heat the oil in a pressure cooker, add the onions, garlic paste and ginger paste and sauté on a medium flame for 1 minute.
+Add the french beans, carrot, green peas, chilli powder and garam masala and sauté on a medium flame for 1 minute.
+Add the brown rice, yellow moong dal, oats, coriander and salt, mix well and cook on a medium flame for 2 minutes, while stirring continuously.
+Add 3 cups of hot water, mix well and pressure cook for 7 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 300 cal
+Protein 9.1 g
+Carbohydrates 53.2 g
+Fiber 5.5 g
+Fat 5.6 g
+Cholesterol 0 mg
+Sodium 12.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-vegetable-and-brown-rice-khichdi-41019r</t>
+  </si>
+  <si>
+    <t>Recipe# 41364
+13 Jun 19</t>
+  </si>
+  <si>
+    <t>Avocado and Tomato Salad, Healthy and Quick Salad</t>
+  </si>
+  <si>
+    <t>1 1/2 cups sliced avocados
+1 cup deseeded and sliced tomatoes
+To Be Mixed Into A Dressing
+1 tbsp olive oil
+1/2 tsp mustard (rai / sarson) powder
+1 tsp lemon juice
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients along with the dressing in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 269 cal
+Protein 2.1 g
+Carbohydrates 3.3 g
+Fiber 1.1 g
+Fat 27.5 g
+Cholesterol 0 mg
+Sodium 7.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-and-tomato-salad-healthy-and-quick-salad-41364r</t>
+  </si>
+  <si>
+    <t>Recipe# 36414
+05 Apr 21</t>
+  </si>
+  <si>
+    <t>Bean Sprouts and Suva Tossed Salad</t>
+  </si>
+  <si>
+    <t>For Bean Sprouts and Suva Tossed Salad
+2 cups bean sprouts
+1/4 cup finely chopped dill leaves
+1/2 cup chopped tomatoes
+1 tbsp lemon juice
+1/4 cup chopped basil
+salt to taste</t>
+  </si>
+  <si>
+    <t>For bean sprouts and suva tossed salad
+To make bean sprouts and suva tossed salad, combine all the ingredients in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 21 cal
+Protein 1.5 g
+Carbohydrates 4 g
+Fiber 1.3 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 5.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bean-sprouts-and-suva-tossed-salad-36414r</t>
+  </si>
+  <si>
+    <t>Recipe# 7463
+14 Jul 23</t>
+  </si>
+  <si>
+    <t>Gavarfali ki Sukhi Subzi</t>
+  </si>
+  <si>
+    <t>For Gavarfali ki Sukhi Subzi
+2 cups cluster beans (gavarfali) , cut into 25 mm. pieces
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/2 cup chopped onions
+1 tsp garlic (lehsun) paste
+1/4 tsp turmeric powder (haldi)
+salt to taste
+2 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tsp chilli powder</t>
+  </si>
+  <si>
+    <t>For gavarfali ki sukhi subzi
+To make gavarfali ki sukhi sabzi, heat the oil in a broad non-stick pan and add the cumin seeds.
+When the seeds crackle, add the onions, garlic paste and turmeric powder and sauté on a medium flame for 2 minutes.
+Add the cluster beans, salt and ½ cup of water and mix well. Cover with a lid and cook on a medium flame for 8 to 10 minutes, while stirring occasionally.
+Add the coriander-cumin seeds powder, chilli powder and 1 tbsp of water, mix well. Cover with a lid and again cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve the gavarfali ki sukhi sabzi hot.</t>
+  </si>
+  <si>
+    <t>Energy 52 cal
+Protein 2.5 g
+Carbohydrates 10 g
+Fiber 4.1 g
+Fat 3.6 g
+Cholesterol 0 mg
+Sodium 0.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/gavarfali-ki-sukhi-subzi-7463r</t>
+  </si>
+  <si>
+    <t>Recipe# 39013
+05 Jul 23</t>
+  </si>
+  <si>
+    <t>Muskmelon and Pineapple Juice</t>
+  </si>
+  <si>
+    <t>2 cups chilled and roughly chopped muskmelon (kharbooja)
+4 cups chilled and roughly chopped pineapple
+For Serving
+8 ice-cubes</t>
+  </si>
+  <si>
+    <t>Add the muskmelon and pineapple a few at a time in a hopper.
+Pour equal quantities of the juice into 4 individual glasses.
+Serve immediately topped with 2 ice-cubes in each glass.</t>
+  </si>
+  <si>
+    <t>Energy 80 cal
+Protein 0.8 g
+Carbohydrates 18.5 g
+Fiber 4.7 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 130 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/muskmelon-and-pineapple-juice-39013r</t>
+  </si>
+  <si>
+    <t>Recipe# 6213
+17 Oct 20</t>
+  </si>
+  <si>
+    <t>Apple Magic, Lemony Apple Juice</t>
+  </si>
+  <si>
+    <t>Juicer Method
+3 cups apple cubes
+2 tsp lemon juice
+crushed ice for serving , optional</t>
+  </si>
+  <si>
+    <t>Juicer method
+Add the apple cubes a few at a time in the juicer.
+Add the lemon juice and mix well.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve the lemony apple juice immediately.
+Mixer method
+This recipe doesn’t turn out good in a mixer because the texture of ingredients like apple is very hard.
+Handy tip:
+This recipe makes use of unpeeled fruits and vegetables, hence take care to clean and wash them well before chopping, to get rid of dirt, germs and chemical residues.</t>
+  </si>
+  <si>
+    <t>Energy 108 cal
+Protein 0.4 g
+Carbohydrates 24.4 g
+Fiber 5.7 g
+Fat 1 g
+Cholesterol 0 mg
+Sodium 48.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-magic-lemony-apple-juice-6213r</t>
+  </si>
+  <si>
+    <t>Recipe# 22206
+21 Jul 23</t>
+  </si>
+  <si>
+    <t>Bhindi Masala</t>
+  </si>
+  <si>
+    <t>For Bhindi Masala
+20 tender ladies finger (bhindi)
+2 tbsp besan (bengal gram flour)
+2 tsp oil
+For The Bhindi Masala Paste
+1/2 cup roughly chopped onions
+1 cup chopped coriander (dhania)
+2 tsp ginger-green chilli paste
+1/2 tsp turmeric powder (haldi)
+1 tbsp coriander-cumin seeds (dhania-jeera) powder
+1 tsp garam masala
+2 tsp roasted sesame seeds (til)
+1 tbsp lemon juice
+salt to taste
+For Serving With Bhindi Masala
+rotis/parathas</t>
+  </si>
+  <si>
+    <t>For the bhindi masala paste
+Combine all the ingredients and 2 tbsp of water in a mixer and blend till smooth.
+Transfer the mixture into a deep bowl, add the besan and mix well. Keep aside.
+How to proceed to make bhindi masala
+To make bhindi masala, wash, dry and slit the bhindi lengthwise.
+Stuff each bhindi with a little prepared paste. Keep the remaining paste aside.
+Heat a non-stick tava (griddle), put the remaining paste and 2 tbsp of water and sauté on a medium flame for 2 minutes.
+Add the stuffed bhindis and sauté on a medium flame for 4 minutes.
+Cover with a lid and cook on a medium flame for 6 to 8 minutes, while stirring occasionally.
+Serve the bhindi masala hot with rotis or parathas.</t>
+  </si>
+  <si>
+    <t>Energy 83 cal
+Protein 3.6 g
+Carbohydrates 14.2 g
+Fiber 3.6 g
+Fat 1.4 g
+Cholesterol 0 mg
+Sodium 15.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bhindi-masala-22206r</t>
+  </si>
+  <si>
+    <t>Recipe# 8651
+13 Jun 19</t>
+  </si>
+  <si>
+    <t>Avocado Dip, Avocado Jain Dip</t>
+  </si>
+  <si>
+    <t>1 cup mashed ripe avocado
+1 tsp lemon juice
+2 tbsp chopped tomatoes
+1/2 tsp chopped green chillies
+salt to taste
+For Serving
+corn chips</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and mix well.
+Serve with corn chips.</t>
+  </si>
+  <si>
+    <t>Energy 31 cal
+Protein 0.3 g
+Carbohydrates 0.3 g
+Fiber 0 g
+Fat 3.3 g
+Cholesterol 0 mg
+Sodium 0.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-dip-avocado-jain-dip-8651r</t>
+  </si>
+  <si>
+    <t>Recipe# 38954
+18 Apr 19</t>
+  </si>
+  <si>
+    <t>Fluffy Egg White Masala Omelette</t>
+  </si>
+  <si>
+    <t>3 eggs whites
+1 tsp olive oil
+salt and freshly ground to taste
+For The Masala Vegetables
+1/4 cup finely chopped onions
+1/2 cup red and yellow capsicum chopped
+1/4 cup finely chopped mushrooms (khumbh)
+1/4 cup finely chopped tomatoes
+1/2 tsp finely chopped green chillies
+1 tsp olive oil</t>
+  </si>
+  <si>
+    <t>For the masala vegetables
+In a pan, heat the olive oil and sauté the onions, capsicums , mushrooms, and green chilli for 1 minute. Add the tomatoes and cook again. Keep aside.
+How to proceed
+Beat the egg whites in a electric beater on a slow for 2 to 3 minutes or until the mixture is thick and frothy.
+Heat the olive oil in a 10 inch pan. Add the beaten egg and cook for a few minutes checking with a spatula to see when the bottom of the egg is done. Then add the cooked masala vegetables in the centre of the omelette. Fold the omelette into half and serve hot with a whole wheat toast.
+Sprinkle fresh pepper on top.</t>
+  </si>
+  <si>
+    <t>Energy 394 cal
+Protein 22 g
+Carbohydrates 8.9 g
+Fiber 2.6 g
+Fat 30.3 g
+Cholesterol 0 mg
+Sodium 9.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/fluffy-egg-white-masala-omelette-38954r</t>
+  </si>
+  <si>
+    <t>Recipe# 39688
+23 Mar 14</t>
+  </si>
+  <si>
+    <t>Mushroom and Green Capsicum Subzi</t>
+  </si>
+  <si>
+    <t>5 cups mushroom (khumbh) halves
+1 cup capsicum cubes
+2 tsp oil
+salt to taste
+To Be Blended Into A Smooth Paste (using 1/2 Cup Of Water)
+4 whole dry kashmiri red chillies , broken into pieces
+6 garlic (lehsun) cloves
+1/2 cup roughly chopped onions</t>
+  </si>
+  <si>
+    <t>Heat the oil in a broad non-stick pan, add the prepared paste and 2 tbsp of water, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the capsicum cubes, mushrooms and salt and mix well. Cover with a lid and cook on a medium flame for 6 to 8 minutes, while stirring occasionally.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 59 cal
+Protein 2.3 g
+Carbohydrates 7 g
+Fiber 1.9 g
+Fat 3 g
+Cholesterol 0 mg
+Sodium 4.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mushroom-and-green-capsicum-subzi-39688r</t>
+  </si>
+  <si>
+    <t>Recipe# 41020
+14 Nov 19</t>
+  </si>
+  <si>
+    <t>Gavar Aur Masoor ki Dal</t>
+  </si>
+  <si>
+    <t>3/4 cup chopped cluster beans (gavarfali)
+3/4 cup masoor dal (split red lentil) , washed and drained
+2 tsp oil
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1/4 cup finely chopped onions
+1 tsp garlic (lehsun) paste
+1/4 cup finely chopped tomatoes
+3/4 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Combine the masoor dal and 1½ cups of water in a pressure cooker and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Add 1½ cups of water and mix well using a whisk. Keep aside.
+Heat the oil in a deep non-stick pan and add the cumin seeds and asafoetida and sauté on a medium flame for a few seconds.
+Add the onions and garlic paste and sauté on a medium flame for 1 minute.
+Add the tomatoes, mix well and cook on a medium flame for 1 minute.
+Add the cluster beans, chilli powder, turmeric powder, salt and ½ cup of water and mix well. Cover with a lid and cook on a medium flame for 6 minutes, while stirring occasionally.
+Add the cooked masoor dal, mix well and cook on a medium flame for another 3 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 129 cal
+Protein 7.9 g
+Carbohydrates 20.1 g
+Fiber 4.2 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 3.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/gavar-aur-masoor-ki-dal-41020r</t>
+  </si>
+  <si>
+    <t>Recipe# 1706
+21 Jun 23</t>
+  </si>
+  <si>
+    <t>Dal and Vegetable Idli</t>
+  </si>
+  <si>
+    <t>For Dal and Vegetable Idli
+1/2 cup toovar (arhar) dal
+1/4 cup yellow moong dal (split yellow gram)
+1/2 cup chana dal (split bengal gram)
+1 cup chopped fenugreek leaves (methi)
+2 cups chopped coriander (dhania)
+1/4 cup boiled green peas
+1/4 cup grated coconut
+2 tsp chopped green chillies
+1/4 cup chopped onions
+1/4 cup grated carrot
+salt to taste
+oil for greasing</t>
+  </si>
+  <si>
+    <t>For dal and vegetable idli
+To make dal and vegetable idli, wash and soak the dals together at least 3 hours.
+Drain, add water and grind to a smooth paste.
+Add the fenugreek, coriander, green peas, coconut, green chillies, onion, carrot and salt and mix well.
+Gradually add water as required to make a thick batter. We added a total of 3/4th cup water.
+Just before steaming, add fruit salt and 1 tbsp of water to the batter and mix gently.
+Pour into greased idli moulds and steam for 10 to 12 minutes till done.
+Serve the dal and vegetable idli hot with sambhar and coconut chutney.</t>
+  </si>
+  <si>
+    <t>Energy 49 cal
+Protein 2.8 g
+Carbohydrates 7.5 g
+Fiber 2 g
+Fat 0.9 g
+Cholesterol 0 mg
+Sodium 9.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/dal-and-vegetable-idli-1706r</t>
+  </si>
+  <si>
+    <t>Recipe# 5574
+02 Dec 20</t>
+  </si>
+  <si>
+    <t>Rajma and Urad Dal</t>
+  </si>
+  <si>
+    <t>For Rajma and Urad Dal
+1/4 cup rajma (kidney beans)
+1/4 cup chana dal (split bengal gram)
+1/2 cup chilkewali urad dal (spit black gram with skin)
+salt to taste
+2 tsp oil
+1 tbsp finely chopped garlic (lehsun)
+1/2 cup finely chopped onions
+1 tsp green chilli paste
+1 cup finely chopped tomatoes
+1 tsp chilli powder
+2 tsp cumin seeds (jeera) powder
+1/4 cup chopped coriander (dhania)
+1 tbsp lemon juice</t>
+  </si>
+  <si>
+    <t>Clean, wash and soak the rajma, chana and urad dal in a deep bowl with enough water overnight.
+Drain the soaked dals, add 4 cups water and salt, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a deep non-stick pan, add the garlic, onions and green chilli paste and sauté on a medium flame for 1 minute.
+Add the tomatoes, chilli powder, cumin seeds powder, little salt and 2 tbsp of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the cooked dals and coriander, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the lemon juice, mix well and serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 126 cal
+Protein 6.7 g
+Carbohydrates 19.1 g
+Fiber 3.7 g
+Fat 2.5 g
+Cholesterol 0 mg
+Sodium 15.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rajma-and-urad-dal-5574r</t>
+  </si>
+  <si>
+    <t>Recipe# 4642
+29 Jul 19</t>
+  </si>
+  <si>
+    <t>Muskmelon, Pear and Apple Salad</t>
+  </si>
+  <si>
+    <t>1 1/2 cups chilled muskmelon (kharbooja) cubes
+3/4 cup chilled pear cubes
+3/4 cup chilled apple cubes
+To Be Mixed Into A Parsley Dressing
+1/4 cup finely chopped parsley
+1/2 cup thick low-fat curds (dahi)
+1/4 tsp mustard (rai / sarson) powder
+salt to taste</t>
+  </si>
+  <si>
+    <t>Combine the muskmelon, pear and apples in a deep bowl and mix well.
+Just before serving, add the parsley dressing and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 45 cal
+Protein 1.3 g
+Carbohydrates 9.3 g
+Fiber 2.3 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 79.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/muskmelon-pear-and-apple-salad-4642r</t>
+  </si>
+  <si>
+    <t>Recipe# 39642
+14 Jan 23</t>
+  </si>
+  <si>
+    <t>Citrus Watermelon Salad</t>
+  </si>
+  <si>
+    <t>For Citrus Watermelon Salad
+2 cups watermelon (tarbuj) cubes
+1/2 cup orange segments
+1/2 cup sweet lime (mosambi) segments
+1/2 cup pomegranate (anar)
+To Be Mixed Into A Dressing
+2 tsp extra virgin olive oil
+2 tbsp finely chopped parsley
+1 tsp lemon juice
+1/2 tsp sea salt (khada namak)</t>
+  </si>
+  <si>
+    <t>For citrus watermelon salad
+To make citrus watermelon salad, prepare the parsley lemon extra virgin olive oil dressing by mixing all ingredients.
+In a deep bowl put watermelon (tarbuj) cubes, orange segments, sweet lime (mosambi) segments and pomegranate (anar).
+Add the dressing just before serving. Toss well.
+Serve citrus watermelon salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 93 cal
+Protein 1.2 g
+Carbohydrates 13.6 g
+Fiber 2.7 g
+Fat 3.8 g
+Cholesterol 0 mg
+Sodium 32.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/citrus-watermelon-salad-39642r</t>
+  </si>
+  <si>
+    <t>Recipe# 379
+05 Sep 22</t>
+  </si>
+  <si>
+    <t>Chawli, Rajma and Chick Pea Healthy Salad</t>
+  </si>
+  <si>
+    <t>For Chawli , Rajma and Chick Pea Salad
+2 1/4 cups mixed boiled beans (rajma , chawli and chick peas)
+1/2 cup sliced spring onions
+1/2 cup tomato cubes
+1 tsp finely chopped green chillies
+1 tbsp finely chopped coriander (dhania)
+To Be Mixed Into A Dressing
+2 tbsp lemon juice
+2 tsp chaat masala
+1/4 tsp black salt (sanchal)
+salt and to taste
+For The Garnish
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For chawli, rajma and chick pea salad
+To make chawli, rajma and chick pea salad, combine all the ingredients (except the dressing) in a deep bowl and mix well.
+Refrigerate for 1 hour or longer.
+Just before serving add the peppy lemon dressing. Toss well.
+Serve healthy three bean chaat salad chilled garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 296 cal
+Protein 20.7 g
+Carbohydrates 50.7 g
+Fiber 14.9 g
+Fat 1.3 g
+Cholesterol 0 mg
+Sodium 165.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chawli-rajma-and-chick-pea-healthy-salad-379r</t>
+  </si>
+  <si>
+    <t>Recipe# 6210
+30 Jul 22</t>
+  </si>
+  <si>
+    <t>Papaya Coconut Drink</t>
+  </si>
+  <si>
+    <t>For Papaya Coconut Drink
+1 cup papaya cubes
+1/4 cup coconut meat (nariyal ki malai)
+3/4 cup chilled coconut water (nariyal ka pani)
+10 to 12 ice-cubes</t>
+  </si>
+  <si>
+    <t>For papaya coconut drink
+To make papaya coconut drink, combine the papaya cubes, coconut meat, coconut water and ice cubes in a mixer jar and blend well till smooth.
+Serve the papaya coconut drinkimmediately.
+Handy tip:
+This recipe doesn’t turn out good in a juicer (hopper) because the texture of papaya is very soft.</t>
+  </si>
+  <si>
+    <t>Energy 61 cal
+Protein 1.3 g
+Carbohydrates 11 g
+Fiber 9 g
+Fat 1.4 g
+Cholesterol 0 mg
+Sodium 4.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/papaya-coconut-drink-6210r</t>
+  </si>
+  <si>
+    <t>Recipe# 3600
+28 Jun 19</t>
+  </si>
+  <si>
+    <t>Minty Bean Salad</t>
+  </si>
+  <si>
+    <t>2 tbsp finely chopped mint leaves (phudina)
+1 1/2 cups soaked and cooked chawli , refer handy tip
+1/2 cup chopped cucumber
+1/2 cup finely chopped onions
+1/2 cup finely chopped tomatoes
+2 tbsp finely chopped coriander (dhania)
+1/2 tsp finely chopped green chillies
+1/4 tsp black salt (sanchal)
+1/2 tbsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a bowl and toss well.
+Serve immediately or refrigerate for 1 hour and serve chilled.
+Handy tip:
+½ cup of raw chawli, when soaked and boiled yields 1½ cups cooked chawli. Ensure not to overcook the chawli for this recipe.</t>
+  </si>
+  <si>
+    <t>Energy 115 cal
+Protein 7.8 g
+Carbohydrates 19.8 g
+Fiber 5.9 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 12.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/minty-bean-salad-3600r</t>
+  </si>
+  <si>
+    <t>Recipe# 5559
+26 Mar 19</t>
+  </si>
+  <si>
+    <t>Rajma Cucumber and Carrot Salad</t>
+  </si>
+  <si>
+    <t>1 cup thinly sliced carrot
+1 cup thinly sliced cucumber
+1/2 cup soaked and boiled rajma (kidney beans)
+1/2 cup sliced spring onions (white and greens)
+To Be Mixed Together Into A Mint Dressing
+2 tbsp finely chopped mint leaves (phudina)
+4 tsp honey
+1 tbsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients for the salad in a bowl, toss well and refrigerate for at least 1 hour.
+Just before serving, add the mint dressing and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 68 cal
+Protein 2.1 g
+Carbohydrates 14.9 g
+Fiber 2.9 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 15 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rajma-cucumber-and-carrot-salad-5559r</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="189" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="198" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -12020,6 +13514,60 @@
       <color indexed="17"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -12041,7 +13589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="339">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -12750,6 +14298,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13072,9 +14629,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
-    <col min="11" max="11" width="39.81640625" style="191" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="18.26953125"/>
+    <col min="4" max="4" customWidth="true" width="20.81640625"/>
+    <col min="11" max="11" customWidth="true" style="191" width="39.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="58" x14ac:dyDescent="0.35">
@@ -13190,34 +14747,34 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K4" s="191" t="s">
@@ -13226,34 +14783,34 @@
       <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K5" s="191" t="s">
@@ -13298,34 +14855,34 @@
       <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K7" s="191" t="s">
@@ -13442,34 +14999,34 @@
       <c r="L10" s="49"/>
     </row>
     <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K11" s="191" t="s">
@@ -13550,34 +15107,34 @@
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K14" s="191" t="s">
@@ -13586,34 +15143,34 @@
       <c r="L14" s="49"/>
     </row>
     <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K15" s="191" t="s">
@@ -13694,34 +15251,34 @@
       <c r="L17" s="49"/>
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K18" s="191" t="s">
@@ -13730,34 +15287,34 @@
       <c r="L18" s="49"/>
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K19" s="191" t="s">
@@ -13768,34 +15325,34 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K20" s="191" t="s">
@@ -13804,34 +15361,34 @@
       <c r="L20" s="49"/>
     </row>
     <row r="21" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K21" s="191" t="s">
@@ -13840,34 +15397,34 @@
       <c r="L21" s="49"/>
     </row>
     <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K22" s="191" t="s">
@@ -13878,34 +15435,34 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K23" s="191" t="s">
@@ -13986,34 +15543,34 @@
       <c r="L25" s="49"/>
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K26" s="191" t="s">
@@ -14022,34 +15579,34 @@
       <c r="L26" s="49"/>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K27" s="191" t="s">
@@ -14096,34 +15653,34 @@
       <c r="L28" s="49"/>
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K29" s="191" t="s">
@@ -14240,34 +15797,34 @@
       <c r="L32" s="49"/>
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K33" s="191" t="s">
@@ -14276,34 +15833,34 @@
       <c r="L33" s="49"/>
     </row>
     <row r="34" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K34" s="191" t="s">
@@ -14348,34 +15905,34 @@
       <c r="L35" s="49"/>
     </row>
     <row r="36" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>246</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>247</v>
       </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" t="s" s="0">
         <v>250</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K36" s="191" t="s">
@@ -14422,34 +15979,34 @@
       <c r="L37" s="49"/>
     </row>
     <row r="38" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>258</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>259</v>
       </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" t="s" s="0">
         <v>262</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K38" s="191" t="s">
@@ -14533,34 +16090,34 @@
       <c r="L40" s="49"/>
     </row>
     <row r="41" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>279</v>
       </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>280</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" t="s" s="0">
         <v>282</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" t="s" s="0">
         <v>283</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K41" s="191" t="s">
@@ -14569,34 +16126,34 @@
       <c r="L41" s="49"/>
     </row>
     <row r="42" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>285</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>286</v>
       </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>287</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="s" s="0">
         <v>288</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" t="s" s="0">
         <v>289</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" t="s" s="0">
         <v>290</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K42" s="191" t="s">
@@ -14607,34 +16164,34 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>292</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>293</v>
       </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="s" s="0">
         <v>294</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" t="s" s="0">
         <v>295</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" t="s" s="0">
         <v>296</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K43" s="191" t="s">
@@ -14643,34 +16200,34 @@
       <c r="L43" s="49"/>
     </row>
     <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K44" s="191" t="s">
@@ -14681,34 +16238,34 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K45" s="191" t="s">
@@ -14719,34 +16276,34 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K46" s="191" t="s">
@@ -14791,34 +16348,34 @@
       <c r="L47" s="49"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>322</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>323</v>
       </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C48" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" t="s" s="0">
         <v>324</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" t="s" s="0">
         <v>325</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" t="s" s="0">
         <v>326</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K48" s="191" t="s">
@@ -14827,34 +16384,34 @@
       <c r="L48" s="49"/>
     </row>
     <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>328</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="s" s="0">
         <v>330</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" t="s" s="0">
         <v>332</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K49" s="191" t="s">
@@ -14863,34 +16420,34 @@
       <c r="L49" s="49"/>
     </row>
     <row r="50" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>334</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>335</v>
       </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C50" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>336</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" t="s" s="0">
         <v>337</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" t="s" s="0">
         <v>338</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K50" s="191" t="s">
@@ -14939,34 +16496,34 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>346</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C52" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" t="s" s="0">
         <v>348</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" t="s" s="0">
         <v>350</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K52" s="191" t="s">
@@ -14975,34 +16532,34 @@
       <c r="L52" s="49"/>
     </row>
     <row r="53" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>353</v>
       </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C53" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" t="s" s="0">
         <v>354</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" t="s" s="0">
         <v>355</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" t="s" s="0">
         <v>356</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K53" s="191" t="s">
@@ -15119,34 +16676,34 @@
       <c r="L56" s="49"/>
     </row>
     <row r="57" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>376</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>377</v>
       </c>
-      <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C57" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" t="s" s="0">
         <v>378</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" t="s" s="0">
         <v>379</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" t="s" s="0">
         <v>380</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" t="s" s="0">
         <v>381</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K57" s="191" t="s">
@@ -15155,34 +16712,34 @@
       <c r="L57" s="49"/>
     </row>
     <row r="58" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>383</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C58" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" t="s" s="0">
         <v>385</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" t="s" s="0">
         <v>386</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" t="s" s="0">
         <v>387</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K58" s="191" t="s">
@@ -15191,34 +16748,34 @@
       <c r="L58" s="49"/>
     </row>
     <row r="59" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>389</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="0">
         <v>390</v>
       </c>
-      <c r="C59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s" s="0">
         <v>391</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" t="s" s="0">
         <v>392</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" t="s" s="0">
         <v>393</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" t="s" s="0">
         <v>394</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K59" s="191" t="s">
@@ -15227,34 +16784,34 @@
       <c r="L59" s="49"/>
     </row>
     <row r="60" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>396</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="0">
         <v>397</v>
       </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C60" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" t="s" s="0">
         <v>398</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" t="s" s="0">
         <v>399</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K60" s="191" t="s">
@@ -15335,34 +16892,34 @@
       <c r="L62" s="49"/>
     </row>
     <row r="63" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>414</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>415</v>
       </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C63" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" t="s" s="0">
         <v>416</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" t="s" s="0">
         <v>417</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" t="s" s="0">
         <v>418</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K63" s="191" t="s">
@@ -15371,34 +16928,34 @@
       <c r="L63" s="49"/>
     </row>
     <row r="64" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="0">
         <v>421</v>
       </c>
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C64" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" t="s" s="0">
         <v>422</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" t="s" s="0">
         <v>423</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" t="s" s="0">
         <v>424</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K64" s="191" t="s">
@@ -15443,34 +17000,34 @@
       <c r="L65" s="49"/>
     </row>
     <row r="66" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>432</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>433</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" t="s" s="0">
         <v>434</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" t="s" s="0">
         <v>435</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" t="s" s="0">
         <v>436</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K66" s="191" t="s">
@@ -15515,34 +17072,34 @@
       <c r="L67" s="49"/>
     </row>
     <row r="68" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>445</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="0">
         <v>446</v>
       </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C68" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" t="s" s="0">
         <v>447</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" t="s" s="0">
         <v>448</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" t="s" s="0">
         <v>449</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K68" s="191" t="s">
@@ -15551,34 +17108,34 @@
       <c r="L68" s="49"/>
     </row>
     <row r="69" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" t="s" s="0">
         <v>452</v>
       </c>
-      <c r="C69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C69" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" t="s" s="0">
         <v>453</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" t="s" s="0">
         <v>454</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" t="s" s="0">
         <v>455</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K69" s="191" t="s">
@@ -15659,34 +17216,34 @@
       <c r="L71" s="49"/>
     </row>
     <row r="72" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>469</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" t="s" s="0">
         <v>470</v>
       </c>
-      <c r="C72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C72" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" t="s" s="0">
         <v>471</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" t="s" s="0">
         <v>472</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" t="s" s="0">
         <v>473</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K72" s="191" t="s">
@@ -15839,34 +17396,34 @@
       <c r="L76" s="49"/>
     </row>
     <row r="77" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>500</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" t="s" s="0">
         <v>501</v>
       </c>
-      <c r="C77" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C77" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" t="s" s="0">
         <v>502</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" t="s" s="0">
         <v>503</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" t="s" s="0">
         <v>504</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K77" s="191" t="s">
@@ -15913,34 +17470,34 @@
       <c r="L78" s="49"/>
     </row>
     <row r="79" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>512</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" t="s" s="0">
         <v>513</v>
       </c>
-      <c r="C79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C79" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s" s="0">
         <v>514</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" t="s" s="0">
         <v>515</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" t="s" s="0">
         <v>516</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" t="s" s="0">
         <v>517</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K79" s="191" t="s">
@@ -15949,34 +17506,34 @@
       <c r="L79" s="49"/>
     </row>
     <row r="80" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>519</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" t="s" s="0">
         <v>520</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" t="s" s="0">
         <v>521</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" t="s" s="0">
         <v>522</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K80" s="191" t="s">
@@ -16093,34 +17650,34 @@
       <c r="L83" s="49"/>
     </row>
     <row r="84" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>543</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" t="s" s="0">
         <v>544</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" t="s" s="0">
         <v>545</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" t="s" s="0">
         <v>546</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" t="s" s="0">
         <v>547</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K84" s="191" t="s">
@@ -16205,34 +17762,34 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>561</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" t="s" s="0">
         <v>562</v>
       </c>
-      <c r="C87" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="C87" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" t="s" s="0">
         <v>563</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" t="s" s="0">
         <v>564</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" t="s" s="0">
         <v>565</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K87" s="191" t="s">
@@ -16241,34 +17798,34 @@
       <c r="L87" s="49"/>
     </row>
     <row r="88" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>567</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" t="s" s="0">
         <v>568</v>
       </c>
-      <c r="C88" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="C88" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" t="s" s="0">
         <v>569</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" t="s" s="0">
         <v>570</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" t="s" s="0">
         <v>571</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" t="s" s="0">
         <v>572</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K88" s="191" t="s">
@@ -16277,34 +17834,34 @@
       <c r="L88" s="49"/>
     </row>
     <row r="89" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>574</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" t="s" s="0">
         <v>575</v>
       </c>
-      <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C89" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" t="s" s="0">
         <v>576</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" t="s" s="0">
         <v>577</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" t="s" s="0">
         <v>578</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K89" s="191" t="s">
@@ -16457,34 +18014,34 @@
       <c r="L93" s="49"/>
     </row>
     <row r="94" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>604</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" t="s" s="0">
         <v>605</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" t="s" s="0">
         <v>606</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" t="s" s="0">
         <v>607</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" t="s" s="0">
         <v>608</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K94" s="191" t="s">
@@ -16493,34 +18050,34 @@
       <c r="L94" s="49"/>
     </row>
     <row r="95" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>610</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" t="s" s="0">
         <v>611</v>
       </c>
-      <c r="C95" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="C95" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" t="s" s="0">
         <v>612</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" t="s" s="0">
         <v>613</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" t="s" s="0">
         <v>614</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K95" s="191" t="s">
@@ -16531,34 +18088,34 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="A96" t="s" s="0">
         <v>616</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" t="s" s="0">
         <v>617</v>
       </c>
-      <c r="C96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="C96" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" t="s" s="0">
         <v>618</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" t="s" s="0">
         <v>619</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" t="s" s="0">
         <v>620</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J96" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K96" s="191" t="s">
@@ -16567,34 +18124,34 @@
       <c r="L96" s="49"/>
     </row>
     <row r="97" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="A97" t="s" s="0">
         <v>622</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" t="s" s="0">
         <v>623</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" t="s" s="0">
         <v>624</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" t="s" s="0">
         <v>625</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" t="s" s="0">
         <v>626</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K97" s="191" t="s">
@@ -16641,34 +18198,34 @@
       <c r="L98" s="49"/>
     </row>
     <row r="99" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" t="s" s="0">
         <v>634</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" t="s" s="0">
         <v>635</v>
       </c>
-      <c r="C99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="C99" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" t="s" s="0">
         <v>636</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" t="s" s="0">
         <v>637</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" t="s" s="0">
         <v>638</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K99" s="191" t="s">
@@ -16713,34 +18270,34 @@
       <c r="L100" s="49"/>
     </row>
     <row r="101" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" t="s" s="0">
         <v>646</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" t="s" s="0">
         <v>647</v>
       </c>
-      <c r="C101" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="C101" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" t="s" s="0">
         <v>648</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" t="s" s="0">
         <v>649</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" t="s" s="0">
         <v>650</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K101" s="191" t="s">
@@ -16863,34 +18420,34 @@
       <c r="L104" s="49"/>
     </row>
     <row r="105" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>672</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" t="s" s="0">
         <v>673</v>
       </c>
-      <c r="C105" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="C105" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" t="s" s="0">
         <v>674</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" t="s" s="0">
         <v>675</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" t="s" s="0">
         <v>676</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K105" s="191" t="s">
@@ -16971,34 +18528,34 @@
       <c r="L107" s="49"/>
     </row>
     <row r="108" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="A108" t="s" s="0">
         <v>691</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" t="s" s="0">
         <v>692</v>
       </c>
-      <c r="C108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="C108" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" t="s" s="0">
         <v>693</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" t="s" s="0">
         <v>694</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" t="s" s="0">
         <v>695</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K108" s="191" t="s">
@@ -17195,34 +18752,34 @@
       <c r="L113" s="49"/>
     </row>
     <row r="114" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="A114" t="s" s="0">
         <v>729</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" t="s" s="0">
         <v>730</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" t="s" s="0">
         <v>731</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" t="s" s="0">
         <v>732</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" t="s" s="0">
         <v>733</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J114" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K114" s="191" t="s">
@@ -17267,34 +18824,34 @@
       <c r="L115" s="49"/>
     </row>
     <row r="116" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="A116" t="s" s="0">
         <v>741</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" t="s" s="0">
         <v>742</v>
       </c>
-      <c r="C116" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="C116" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" t="s" s="0">
         <v>743</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" t="s" s="0">
         <v>713</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" t="s" s="0">
         <v>744</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" t="s" s="0">
         <v>745</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K116" s="191" t="s">
@@ -17339,34 +18896,34 @@
       <c r="L117" s="49"/>
     </row>
     <row r="118" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="A118" t="s" s="0">
         <v>753</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" t="s" s="0">
         <v>754</v>
       </c>
-      <c r="C118" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="C118" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s" s="0">
         <v>514</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" t="s" s="0">
         <v>755</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" t="s" s="0">
         <v>756</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" t="s" s="0">
         <v>757</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J118" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K118" s="191" t="s">
@@ -17375,34 +18932,34 @@
       <c r="L118" s="49"/>
     </row>
     <row r="119" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="A119" t="s" s="0">
         <v>759</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" t="s" s="0">
         <v>760</v>
       </c>
-      <c r="C119" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="C119" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D119" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" t="s" s="0">
         <v>761</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" t="s" s="0">
         <v>762</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" t="s" s="0">
         <v>763</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J119" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K119" s="191" t="s">
@@ -17411,34 +18968,34 @@
       <c r="L119" s="49"/>
     </row>
     <row r="120" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="A120" t="s" s="0">
         <v>765</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" t="s" s="0">
         <v>766</v>
       </c>
-      <c r="C120" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="C120" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D120" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" t="s" s="0">
         <v>767</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" t="s" s="0">
         <v>768</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" t="s" s="0">
         <v>769</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" t="s" s="0">
         <v>770</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J120" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K120" s="191" t="s">
@@ -17485,34 +19042,34 @@
       <c r="L121" s="49"/>
     </row>
     <row r="122" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="A122" t="s" s="0">
         <v>779</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" t="s" s="0">
         <v>780</v>
       </c>
-      <c r="C122" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="C122" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s" s="0">
         <v>409</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" t="s" s="0">
         <v>781</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" t="s" s="0">
         <v>782</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" t="s" s="0">
         <v>783</v>
       </c>
-      <c r="J122" t="s">
+      <c r="J122" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K122" s="191" t="s">
@@ -17521,34 +19078,34 @@
       <c r="L122" s="49"/>
     </row>
     <row r="123" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+      <c r="A123" t="s" s="0">
         <v>785</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" t="s" s="0">
         <v>786</v>
       </c>
-      <c r="C123" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="C123" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" t="s" s="0">
         <v>787</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" t="s" s="0">
         <v>788</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" t="s" s="0">
         <v>789</v>
       </c>
-      <c r="J123" t="s">
+      <c r="J123" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K123" s="191" t="s">
@@ -17667,34 +19224,34 @@
       <c r="L126" s="49"/>
     </row>
     <row r="127" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+      <c r="A127" t="s" s="0">
         <v>809</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" t="s" s="0">
         <v>810</v>
       </c>
-      <c r="C127" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="C127" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" t="s" s="0">
         <v>811</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" t="s" s="0">
         <v>274</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" t="s" s="0">
         <v>812</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" t="s" s="0">
         <v>813</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J127" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K127" s="191" t="s">
@@ -17703,34 +19260,34 @@
       <c r="L127" s="49"/>
     </row>
     <row r="128" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+      <c r="A128" t="s" s="0">
         <v>815</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" t="s" s="0">
         <v>816</v>
       </c>
-      <c r="C128" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="C128" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D128" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" t="s" s="0">
         <v>817</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" t="s" s="0">
         <v>818</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" t="s" s="0">
         <v>819</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J128" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K128" s="191" t="s">
@@ -17739,34 +19296,34 @@
       <c r="L128" s="49"/>
     </row>
     <row r="129" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="A129" t="s" s="0">
         <v>821</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" t="s" s="0">
         <v>822</v>
       </c>
-      <c r="C129" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="C129" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D129" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" t="s" s="0">
         <v>823</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" t="s" s="0">
         <v>824</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" t="s" s="0">
         <v>825</v>
       </c>
-      <c r="J129" t="s">
+      <c r="J129" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K129" s="191" t="s">
@@ -17883,34 +19440,34 @@
       <c r="L132" s="49"/>
     </row>
     <row r="133" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="A133" t="s" s="0">
         <v>847</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" t="s" s="0">
         <v>848</v>
       </c>
-      <c r="C133" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="C133" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D133" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" t="s" s="0">
         <v>849</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" t="s" s="0">
         <v>850</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" t="s" s="0">
         <v>851</v>
       </c>
-      <c r="J133" t="s">
+      <c r="J133" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K133" s="191" t="s">
@@ -17919,34 +19476,34 @@
       <c r="L133" s="49"/>
     </row>
     <row r="134" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="A134" t="s" s="0">
         <v>853</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" t="s" s="0">
         <v>854</v>
       </c>
-      <c r="C134" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="C134" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D134" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" t="s" s="0">
         <v>855</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" t="s" s="0">
         <v>856</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" t="s" s="0">
         <v>857</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J134" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K134" s="191" t="s">
@@ -17993,34 +19550,34 @@
       <c r="L135" s="49"/>
     </row>
     <row r="136" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="A136" t="s" s="0">
         <v>865</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" t="s" s="0">
         <v>866</v>
       </c>
-      <c r="C136" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="C136" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" t="s" s="0">
         <v>867</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" t="s" s="0">
         <v>868</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" t="s" s="0">
         <v>869</v>
       </c>
-      <c r="J136" t="s">
+      <c r="J136" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K136" s="191" t="s">
@@ -18029,34 +19586,34 @@
       <c r="L136" s="49"/>
     </row>
     <row r="137" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="A137" t="s" s="0">
         <v>871</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" t="s" s="0">
         <v>872</v>
       </c>
-      <c r="C137" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="C137" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D137" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" t="s" s="0">
         <v>873</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137" t="s" s="0">
         <v>874</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" t="s" s="0">
         <v>875</v>
       </c>
-      <c r="J137" t="s">
+      <c r="J137" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K137" s="191" t="s">
@@ -18065,34 +19622,34 @@
       <c r="L137" s="49"/>
     </row>
     <row r="138" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="A138" t="s" s="0">
         <v>877</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" t="s" s="0">
         <v>878</v>
       </c>
-      <c r="C138" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="C138" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" t="s" s="0">
         <v>879</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" t="s" s="0">
         <v>880</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" t="s" s="0">
         <v>881</v>
       </c>
-      <c r="J138" t="s">
+      <c r="J138" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K138" s="191" t="s">
@@ -18101,34 +19658,34 @@
       <c r="L138" s="49"/>
     </row>
     <row r="139" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="A139" t="s" s="0">
         <v>883</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" t="s" s="0">
         <v>884</v>
       </c>
-      <c r="C139" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="C139" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D139" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" t="s" s="0">
         <v>885</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" t="s" s="0">
         <v>886</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" t="s" s="0">
         <v>887</v>
       </c>
-      <c r="J139" t="s">
+      <c r="J139" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K139" s="191" t="s">
@@ -18137,34 +19694,34 @@
       <c r="L139" s="49"/>
     </row>
     <row r="140" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="A140" t="s" s="0">
         <v>889</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" t="s" s="0">
         <v>890</v>
       </c>
-      <c r="C140" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="C140" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" t="s" s="0">
         <v>891</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" t="s" s="0">
         <v>892</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" t="s" s="0">
         <v>893</v>
       </c>
-      <c r="J140" t="s">
+      <c r="J140" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K140" s="191" t="s">
@@ -18245,34 +19802,34 @@
       <c r="L142" s="49"/>
     </row>
     <row r="143" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="A143" t="s" s="0">
         <v>908</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" t="s" s="0">
         <v>909</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" t="s" s="0">
         <v>910</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H143" t="s" s="0">
         <v>911</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" t="s" s="0">
         <v>912</v>
       </c>
-      <c r="J143" t="s">
+      <c r="J143" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K143" s="191" t="s">
@@ -18355,34 +19912,34 @@
       <c r="L145" s="49"/>
     </row>
     <row r="146" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+      <c r="A146" t="s" s="0">
         <v>927</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" t="s" s="0">
         <v>928</v>
       </c>
-      <c r="C146" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="C146" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" t="s" s="0">
         <v>929</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" t="s" s="0">
         <v>930</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I146" t="s" s="0">
         <v>931</v>
       </c>
-      <c r="J146" t="s">
+      <c r="J146" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K146" s="191" t="s">
@@ -18465,34 +20022,34 @@
       </c>
     </row>
     <row r="149" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="A149" t="s" s="0">
         <v>945</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" t="s" s="0">
         <v>946</v>
       </c>
-      <c r="C149" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="C149" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D149" t="s" s="0">
         <v>409</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" t="s" s="0">
         <v>947</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149" t="s" s="0">
         <v>948</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" t="s" s="0">
         <v>949</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J149" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K149" s="191" t="s">
@@ -18501,34 +20058,34 @@
       <c r="L149" s="49"/>
     </row>
     <row r="150" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+      <c r="A150" t="s" s="0">
         <v>951</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" t="s" s="0">
         <v>952</v>
       </c>
-      <c r="C150" t="s">
-        <v>14</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="C150" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D150" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" t="s" s="0">
         <v>953</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" t="s" s="0">
         <v>954</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" t="s" s="0">
         <v>955</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J150" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K150" s="191" t="s">
@@ -18645,34 +20202,34 @@
       <c r="L153" s="49"/>
     </row>
     <row r="154" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+      <c r="A154" t="s" s="0">
         <v>975</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" t="s" s="0">
         <v>976</v>
       </c>
-      <c r="C154" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="C154" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D154" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" t="s" s="0">
         <v>977</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" t="s" s="0">
         <v>441</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H154" t="s" s="0">
         <v>978</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" t="s" s="0">
         <v>979</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J154" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K154" s="191" t="s">
@@ -18753,34 +20310,34 @@
       <c r="L156" s="49"/>
     </row>
     <row r="157" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+      <c r="A157" t="s" s="0">
         <v>993</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" t="s" s="0">
         <v>994</v>
       </c>
-      <c r="C157" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="C157" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D157" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" t="s" s="0">
         <v>995</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H157" t="s" s="0">
         <v>996</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" t="s" s="0">
         <v>997</v>
       </c>
-      <c r="J157" t="s">
+      <c r="J157" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K157" s="191" t="s">
@@ -18899,34 +20456,34 @@
       <c r="L160" s="49"/>
     </row>
     <row r="161" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="A161" t="s" s="0">
         <v>1017</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" t="s" s="0">
         <v>1018</v>
       </c>
-      <c r="C161" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="C161" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D161" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" t="s" s="0">
         <v>1019</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H161" t="s" s="0">
         <v>1020</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I161" t="s" s="0">
         <v>1021</v>
       </c>
-      <c r="J161" t="s">
+      <c r="J161" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K161" s="191" t="s">
@@ -18973,34 +20530,34 @@
       <c r="L162" s="49"/>
     </row>
     <row r="163" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+      <c r="A163" t="s" s="0">
         <v>1029</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" t="s" s="0">
         <v>1030</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" t="s" s="0">
         <v>705</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" t="s" s="0">
         <v>1031</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H163" t="s" s="0">
         <v>1032</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I163" t="s" s="0">
         <v>1033</v>
       </c>
-      <c r="J163" t="s">
+      <c r="J163" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K163" s="191" t="s">
@@ -19009,34 +20566,34 @@
       <c r="L163" s="49"/>
     </row>
     <row r="164" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+      <c r="A164" t="s" s="0">
         <v>1035</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" t="s" s="0">
         <v>1036</v>
       </c>
-      <c r="C164" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="C164" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D164" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" t="s" s="0">
         <v>1037</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H164" t="s" s="0">
         <v>1038</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I164" t="s" s="0">
         <v>1039</v>
       </c>
-      <c r="J164" t="s">
+      <c r="J164" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K164" s="191" t="s">
@@ -19083,34 +20640,34 @@
       </c>
     </row>
     <row r="166" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+      <c r="A166" t="s" s="0">
         <v>1047</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" t="s" s="0">
         <v>1048</v>
       </c>
-      <c r="C166" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="C166" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" t="s" s="0">
         <v>1049</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H166" t="s" s="0">
         <v>1050</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I166" t="s" s="0">
         <v>1051</v>
       </c>
-      <c r="J166" t="s">
+      <c r="J166" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K166" s="191" t="s">
@@ -19155,34 +20712,34 @@
       <c r="L167" s="49"/>
     </row>
     <row r="168" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+      <c r="A168" t="s" s="0">
         <v>1059</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" t="s" s="0">
         <v>1060</v>
       </c>
-      <c r="C168" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="C168" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D168" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" t="s" s="0">
         <v>1061</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H168" t="s">
+      <c r="H168" t="s" s="0">
         <v>1062</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I168" t="s" s="0">
         <v>1063</v>
       </c>
-      <c r="J168" t="s">
+      <c r="J168" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K168" s="191" t="s">
@@ -19193,34 +20750,34 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+      <c r="A169" t="s" s="0">
         <v>1065</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" t="s" s="0">
         <v>1066</v>
       </c>
-      <c r="C169" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="C169" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D169" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" t="s" s="0">
         <v>1067</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H169" t="s" s="0">
         <v>1068</v>
       </c>
-      <c r="I169" t="s">
+      <c r="I169" t="s" s="0">
         <v>1069</v>
       </c>
-      <c r="J169" t="s">
+      <c r="J169" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K169" s="191" t="s">
@@ -19229,34 +20786,34 @@
       <c r="L169" s="49"/>
     </row>
     <row r="170" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+      <c r="A170" t="s" s="0">
         <v>1071</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" t="s" s="0">
         <v>1072</v>
       </c>
-      <c r="C170" t="s">
-        <v>14</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="C170" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D170" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" t="s" s="0">
         <v>1073</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="H170" t="s">
+      <c r="H170" t="s" s="0">
         <v>1074</v>
       </c>
-      <c r="I170" t="s">
+      <c r="I170" t="s" s="0">
         <v>1075</v>
       </c>
-      <c r="J170" t="s">
+      <c r="J170" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K170" s="191" t="s">
@@ -19301,34 +20858,34 @@
       <c r="L171" s="49"/>
     </row>
     <row r="172" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+      <c r="A172" t="s" s="0">
         <v>1083</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" t="s" s="0">
         <v>1084</v>
       </c>
-      <c r="C172" t="s">
-        <v>14</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="C172" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D172" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" t="s" s="0">
         <v>1085</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H172" t="s" s="0">
         <v>1086</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I172" t="s" s="0">
         <v>1087</v>
       </c>
-      <c r="J172" t="s">
+      <c r="J172" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K172" s="191" t="s">
@@ -19337,34 +20894,34 @@
       <c r="L172" s="49"/>
     </row>
     <row r="173" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+      <c r="A173" t="s" s="0">
         <v>1089</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" t="s" s="0">
         <v>1090</v>
       </c>
-      <c r="C173" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="C173" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D173" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" t="s" s="0">
         <v>1091</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H173" t="s">
+      <c r="H173" t="s" s="0">
         <v>1092</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I173" t="s" s="0">
         <v>1093</v>
       </c>
-      <c r="J173" t="s">
+      <c r="J173" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K173" s="191" t="s">
@@ -19447,34 +21004,34 @@
       <c r="L175" s="49"/>
     </row>
     <row r="176" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+      <c r="A176" t="s" s="0">
         <v>1107</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" t="s" s="0">
         <v>1108</v>
       </c>
-      <c r="C176" t="s">
-        <v>14</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="C176" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D176" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" t="s" s="0">
         <v>1109</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H176" t="s">
+      <c r="H176" t="s" s="0">
         <v>1110</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I176" t="s" s="0">
         <v>1111</v>
       </c>
-      <c r="J176" t="s">
+      <c r="J176" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K176" s="191" t="s">
@@ -19627,34 +21184,34 @@
       <c r="L180" s="49"/>
     </row>
     <row r="181" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+      <c r="A181" t="s" s="0">
         <v>1137</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" t="s" s="0">
         <v>1138</v>
       </c>
-      <c r="C181" t="s">
-        <v>14</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="C181" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D181" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" t="s" s="0">
         <v>1139</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H181" t="s" s="0">
         <v>1140</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I181" t="s" s="0">
         <v>1141</v>
       </c>
-      <c r="J181" t="s">
+      <c r="J181" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K181" s="191" t="s">
@@ -19699,34 +21256,34 @@
       <c r="L182" s="49"/>
     </row>
     <row r="183" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+      <c r="A183" t="s" s="0">
         <v>1149</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" t="s" s="0">
         <v>1150</v>
       </c>
-      <c r="C183" t="s">
-        <v>14</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="C183" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D183" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" t="s" s="0">
         <v>1151</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="H183" t="s">
+      <c r="H183" t="s" s="0">
         <v>1152</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I183" t="s" s="0">
         <v>1153</v>
       </c>
-      <c r="J183" t="s">
+      <c r="J183" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K183" s="191" t="s">
@@ -19881,34 +21438,34 @@
       <c r="L187" s="49"/>
     </row>
     <row r="188" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+      <c r="A188" t="s" s="0">
         <v>1179</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" t="s" s="0">
         <v>1180</v>
       </c>
-      <c r="C188" t="s">
-        <v>14</v>
-      </c>
-      <c r="D188" t="s">
+      <c r="C188" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D188" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" t="s" s="0">
         <v>1181</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" t="s" s="0">
         <v>570</v>
       </c>
-      <c r="H188" t="s">
+      <c r="H188" t="s" s="0">
         <v>1182</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I188" t="s" s="0">
         <v>1183</v>
       </c>
-      <c r="J188" t="s">
+      <c r="J188" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K188" s="191" t="s">
@@ -19917,34 +21474,34 @@
       <c r="L188" s="49"/>
     </row>
     <row r="189" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+      <c r="A189" t="s" s="0">
         <v>1185</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" t="s" s="0">
         <v>1186</v>
       </c>
-      <c r="C189" t="s">
-        <v>14</v>
-      </c>
-      <c r="D189" t="s">
+      <c r="C189" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D189" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" t="s" s="0">
         <v>1187</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="H189" t="s">
+      <c r="H189" t="s" s="0">
         <v>1188</v>
       </c>
-      <c r="I189" t="s">
+      <c r="I189" t="s" s="0">
         <v>1189</v>
       </c>
-      <c r="J189" t="s">
+      <c r="J189" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K189" s="191" t="s">
@@ -20061,34 +21618,34 @@
       <c r="L192" s="49"/>
     </row>
     <row r="193" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+      <c r="A193" t="s" s="0">
         <v>1209</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" t="s" s="0">
         <v>1210</v>
       </c>
-      <c r="C193" t="s">
-        <v>14</v>
-      </c>
-      <c r="D193" t="s">
+      <c r="C193" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D193" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" t="s" s="0">
         <v>1211</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H193" t="s">
+      <c r="H193" t="s" s="0">
         <v>1212</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I193" t="s" s="0">
         <v>1213</v>
       </c>
-      <c r="J193" t="s">
+      <c r="J193" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K193" s="191" t="s">
@@ -20097,34 +21654,34 @@
       <c r="L193" s="49"/>
     </row>
     <row r="194" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+      <c r="A194" t="s" s="0">
         <v>1215</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" t="s" s="0">
         <v>1216</v>
       </c>
-      <c r="C194" t="s">
-        <v>14</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="C194" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D194" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" t="s" s="0">
         <v>1217</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H194" t="s">
+      <c r="H194" t="s" s="0">
         <v>1218</v>
       </c>
-      <c r="I194" t="s">
+      <c r="I194" t="s" s="0">
         <v>1219</v>
       </c>
-      <c r="J194" t="s">
+      <c r="J194" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K194" s="191" t="s">
@@ -20135,34 +21692,34 @@
       </c>
     </row>
     <row r="195" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+      <c r="A195" t="s" s="0">
         <v>1221</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" t="s" s="0">
         <v>1222</v>
       </c>
-      <c r="C195" t="s">
-        <v>14</v>
-      </c>
-      <c r="D195" t="s">
+      <c r="C195" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D195" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" t="s" s="0">
         <v>1223</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H195" t="s" s="0">
         <v>1224</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I195" t="s" s="0">
         <v>1225</v>
       </c>
-      <c r="J195" t="s">
+      <c r="J195" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K195" s="191" t="s">
@@ -20245,34 +21802,34 @@
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+      <c r="A198" t="s" s="0">
         <v>1239</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" t="s" s="0">
         <v>1240</v>
       </c>
-      <c r="C198" t="s">
-        <v>14</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="C198" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D198" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" t="s" s="0">
         <v>1241</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" t="s" s="0">
         <v>274</v>
       </c>
-      <c r="H198" t="s">
+      <c r="H198" t="s" s="0">
         <v>1242</v>
       </c>
-      <c r="I198" t="s">
+      <c r="I198" t="s" s="0">
         <v>1243</v>
       </c>
-      <c r="J198" t="s">
+      <c r="J198" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K198" s="191" t="s">
@@ -20317,34 +21874,34 @@
       <c r="L199" s="49"/>
     </row>
     <row r="200" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+      <c r="A200" t="s" s="0">
         <v>1251</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" t="s" s="0">
         <v>1252</v>
       </c>
-      <c r="C200" t="s">
-        <v>14</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="C200" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D200" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" t="s" s="0">
         <v>1253</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H200" t="s">
+      <c r="H200" t="s" s="0">
         <v>1254</v>
       </c>
-      <c r="I200" t="s">
+      <c r="I200" t="s" s="0">
         <v>1255</v>
       </c>
-      <c r="J200" t="s">
+      <c r="J200" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K200" s="191" t="s">
@@ -20539,34 +22096,34 @@
       </c>
     </row>
     <row r="206" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
+      <c r="A206" t="s" s="0">
         <v>1287</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" t="s" s="0">
         <v>1288</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" t="s" s="0">
         <v>1289</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G206" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="H206" t="s">
+      <c r="H206" t="s" s="0">
         <v>1290</v>
       </c>
-      <c r="I206" t="s">
+      <c r="I206" t="s" s="0">
         <v>1291</v>
       </c>
-      <c r="J206" t="s">
+      <c r="J206" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K206" s="191" t="s">
@@ -20575,34 +22132,34 @@
       <c r="L206" s="49"/>
     </row>
     <row r="207" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
+      <c r="A207" t="s" s="0">
         <v>1293</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" t="s" s="0">
         <v>1294</v>
       </c>
-      <c r="C207" t="s">
-        <v>14</v>
-      </c>
-      <c r="D207" t="s">
+      <c r="C207" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D207" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" t="s" s="0">
         <v>1295</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" t="s" s="0">
         <v>1296</v>
       </c>
-      <c r="H207" t="s">
+      <c r="H207" t="s" s="0">
         <v>1297</v>
       </c>
-      <c r="I207" t="s">
+      <c r="I207" t="s" s="0">
         <v>1298</v>
       </c>
-      <c r="J207" t="s">
+      <c r="J207" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K207" s="191" t="s">
@@ -20755,34 +22312,34 @@
       <c r="L211" s="49"/>
     </row>
     <row r="212" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
+      <c r="A212" t="s" s="0">
         <v>1324</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" t="s" s="0">
         <v>1325</v>
       </c>
-      <c r="C212" t="s">
-        <v>14</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="C212" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D212" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" t="s" s="0">
         <v>1326</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H212" t="s">
+      <c r="H212" t="s" s="0">
         <v>1327</v>
       </c>
-      <c r="I212" t="s">
+      <c r="I212" t="s" s="0">
         <v>1328</v>
       </c>
-      <c r="J212" t="s">
+      <c r="J212" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K212" s="191" t="s">
@@ -20829,34 +22386,34 @@
       <c r="L213" s="49"/>
     </row>
     <row r="214" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
+      <c r="A214" t="s" s="0">
         <v>1336</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" t="s" s="0">
         <v>1337</v>
       </c>
-      <c r="C214" t="s">
-        <v>14</v>
-      </c>
-      <c r="D214" t="s">
+      <c r="C214" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D214" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" t="s" s="0">
         <v>1338</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H214" t="s">
+      <c r="H214" t="s" s="0">
         <v>1339</v>
       </c>
-      <c r="I214" t="s">
+      <c r="I214" t="s" s="0">
         <v>1340</v>
       </c>
-      <c r="J214" t="s">
+      <c r="J214" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K214" s="191" t="s">
@@ -20901,34 +22458,34 @@
       <c r="L215" s="49"/>
     </row>
     <row r="216" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
+      <c r="A216" t="s" s="0">
         <v>1348</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" t="s" s="0">
         <v>1349</v>
       </c>
-      <c r="C216" t="s">
-        <v>14</v>
-      </c>
-      <c r="D216" t="s">
+      <c r="C216" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D216" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" t="s" s="0">
         <v>1350</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" t="s" s="0">
         <v>830</v>
       </c>
-      <c r="H216" t="s">
+      <c r="H216" t="s" s="0">
         <v>1351</v>
       </c>
-      <c r="I216" t="s">
+      <c r="I216" t="s" s="0">
         <v>1352</v>
       </c>
-      <c r="J216" t="s">
+      <c r="J216" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K216" s="191" t="s">
@@ -20939,34 +22496,34 @@
       </c>
     </row>
     <row r="217" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
+      <c r="A217" t="s" s="0">
         <v>1354</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" t="s" s="0">
         <v>1355</v>
       </c>
-      <c r="C217" t="s">
-        <v>14</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="C217" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D217" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" t="s" s="0">
         <v>1356</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H217" t="s">
+      <c r="H217" t="s" s="0">
         <v>1357</v>
       </c>
-      <c r="I217" t="s">
+      <c r="I217" t="s" s="0">
         <v>1358</v>
       </c>
-      <c r="J217" t="s">
+      <c r="J217" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K217" s="191" t="s">
@@ -20975,34 +22532,34 @@
       <c r="L217" s="49"/>
     </row>
     <row r="218" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
+      <c r="A218" t="s" s="0">
         <v>1360</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" t="s" s="0">
         <v>1361</v>
       </c>
-      <c r="C218" t="s">
-        <v>14</v>
-      </c>
-      <c r="D218" t="s">
+      <c r="C218" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D218" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" t="s" s="0">
         <v>1362</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="H218" t="s">
+      <c r="H218" t="s" s="0">
         <v>1363</v>
       </c>
-      <c r="I218" t="s">
+      <c r="I218" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="J218" t="s">
+      <c r="J218" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K218" s="191" t="s">
@@ -21011,34 +22568,34 @@
       <c r="L218" s="49"/>
     </row>
     <row r="219" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
+      <c r="A219" t="s" s="0">
         <v>1365</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" t="s" s="0">
         <v>1366</v>
       </c>
-      <c r="C219" t="s">
-        <v>14</v>
-      </c>
-      <c r="D219" t="s">
+      <c r="C219" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D219" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" t="s" s="0">
         <v>1367</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H219" t="s">
+      <c r="H219" t="s" s="0">
         <v>1368</v>
       </c>
-      <c r="I219" t="s">
+      <c r="I219" t="s" s="0">
         <v>1369</v>
       </c>
-      <c r="J219" t="s">
+      <c r="J219" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K219" s="191" t="s">
@@ -21193,34 +22750,34 @@
       <c r="L223" s="49"/>
     </row>
     <row r="224" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
+      <c r="A224" t="s" s="0">
         <v>1395</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" t="s" s="0">
         <v>1396</v>
       </c>
-      <c r="C224" t="s">
-        <v>14</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="C224" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D224" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" t="s" s="0">
         <v>1397</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224" t="s" s="0">
         <v>1398</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G224" t="s" s="0">
         <v>1398</v>
       </c>
-      <c r="H224" t="s">
+      <c r="H224" t="s" s="0">
         <v>1399</v>
       </c>
-      <c r="I224" t="s">
+      <c r="I224" t="s" s="0">
         <v>1400</v>
       </c>
-      <c r="J224" t="s">
+      <c r="J224" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K224" s="191" t="s">
@@ -21267,34 +22824,34 @@
       <c r="L225" s="49"/>
     </row>
     <row r="226" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
+      <c r="A226" t="s" s="0">
         <v>1408</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" t="s" s="0">
         <v>1409</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" t="s" s="0">
         <v>1410</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F226" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="H226" t="s">
+      <c r="H226" t="s" s="0">
         <v>1411</v>
       </c>
-      <c r="I226" t="s">
+      <c r="I226" t="s" s="0">
         <v>1412</v>
       </c>
-      <c r="J226" t="s">
+      <c r="J226" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K226" s="191" t="s">
@@ -21413,34 +22970,34 @@
       <c r="L229" s="49"/>
     </row>
     <row r="230" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
+      <c r="A230" t="s" s="0">
         <v>1432</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" t="s" s="0">
         <v>1433</v>
       </c>
-      <c r="C230" t="s">
-        <v>14</v>
-      </c>
-      <c r="D230" t="s">
+      <c r="C230" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D230" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" t="s" s="0">
         <v>1434</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="H230" t="s">
+      <c r="H230" t="s" s="0">
         <v>1435</v>
       </c>
-      <c r="I230" t="s">
+      <c r="I230" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="J230" t="s">
+      <c r="J230" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K230" s="191" t="s">
@@ -21451,34 +23008,34 @@
       </c>
     </row>
     <row r="231" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
+      <c r="A231" t="s" s="0">
         <v>1437</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" t="s" s="0">
         <v>1438</v>
       </c>
-      <c r="C231" t="s">
-        <v>14</v>
-      </c>
-      <c r="D231" t="s">
+      <c r="C231" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D231" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" t="s" s="0">
         <v>1439</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H231" t="s">
+      <c r="H231" t="s" s="0">
         <v>1440</v>
       </c>
-      <c r="I231" t="s">
+      <c r="I231" t="s" s="0">
         <v>1441</v>
       </c>
-      <c r="J231" t="s">
+      <c r="J231" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K231" s="191" t="s">
@@ -21489,34 +23046,34 @@
       </c>
     </row>
     <row r="232" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
+      <c r="A232" t="s" s="0">
         <v>1443</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" t="s" s="0">
         <v>1444</v>
       </c>
-      <c r="C232" t="s">
-        <v>14</v>
-      </c>
-      <c r="D232" t="s">
+      <c r="C232" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D232" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" t="s" s="0">
         <v>1445</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G232" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H232" t="s">
+      <c r="H232" t="s" s="0">
         <v>1446</v>
       </c>
-      <c r="I232" t="s">
+      <c r="I232" t="s" s="0">
         <v>931</v>
       </c>
-      <c r="J232" t="s">
+      <c r="J232" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K232" s="191" t="s">
@@ -21673,34 +23230,34 @@
       </c>
     </row>
     <row r="237" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
+      <c r="A237" t="s" s="0">
         <v>1472</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" t="s" s="0">
         <v>1473</v>
       </c>
-      <c r="C237" t="s">
-        <v>14</v>
-      </c>
-      <c r="D237" t="s">
+      <c r="C237" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D237" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" t="s" s="0">
         <v>1474</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F237" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G237" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H237" t="s">
+      <c r="H237" t="s" s="0">
         <v>1475</v>
       </c>
-      <c r="I237" t="s">
+      <c r="I237" t="s" s="0">
         <v>1476</v>
       </c>
-      <c r="J237" t="s">
+      <c r="J237" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K237" s="191" t="s">
@@ -21709,34 +23266,34 @@
       <c r="L237" s="49"/>
     </row>
     <row r="238" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
+      <c r="A238" t="s" s="0">
         <v>1478</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" t="s" s="0">
         <v>1479</v>
       </c>
-      <c r="C238" t="s">
-        <v>14</v>
-      </c>
-      <c r="D238" t="s">
+      <c r="C238" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D238" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" t="s" s="0">
         <v>1480</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F238" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G238" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H238" t="s">
+      <c r="H238" t="s" s="0">
         <v>1481</v>
       </c>
-      <c r="I238" t="s">
+      <c r="I238" t="s" s="0">
         <v>1482</v>
       </c>
-      <c r="J238" t="s">
+      <c r="J238" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K238" s="191" t="s">
@@ -21781,34 +23338,34 @@
       <c r="L239" s="49"/>
     </row>
     <row r="240" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
+      <c r="A240" t="s" s="0">
         <v>1490</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" t="s" s="0">
         <v>1491</v>
       </c>
-      <c r="C240" t="s">
-        <v>14</v>
-      </c>
-      <c r="D240" t="s">
+      <c r="C240" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D240" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" t="s" s="0">
         <v>1492</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F240" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G240" t="s" s="0">
         <v>1493</v>
       </c>
-      <c r="H240" t="s">
+      <c r="H240" t="s" s="0">
         <v>1494</v>
       </c>
-      <c r="I240" t="s">
+      <c r="I240" t="s" s="0">
         <v>1495</v>
       </c>
-      <c r="J240" t="s">
+      <c r="J240" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K240" s="191" t="s">
@@ -21855,34 +23412,34 @@
       <c r="L241" s="49"/>
     </row>
     <row r="242" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
+      <c r="A242" t="s" s="0">
         <v>1503</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" t="s" s="0">
         <v>1504</v>
       </c>
-      <c r="C242" t="s">
-        <v>14</v>
-      </c>
-      <c r="D242" t="s">
+      <c r="C242" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D242" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E242" t="s" s="0">
         <v>1505</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F242" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G242" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H242" t="s">
+      <c r="H242" t="s" s="0">
         <v>1506</v>
       </c>
-      <c r="I242" t="s">
+      <c r="I242" t="s" s="0">
         <v>1507</v>
       </c>
-      <c r="J242" t="s">
+      <c r="J242" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K242" s="191" t="s">
@@ -21891,34 +23448,34 @@
       <c r="L242" s="49"/>
     </row>
     <row r="243" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
+      <c r="A243" t="s" s="0">
         <v>1509</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" t="s" s="0">
         <v>1510</v>
       </c>
-      <c r="C243" t="s">
-        <v>14</v>
-      </c>
-      <c r="D243" t="s">
+      <c r="C243" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D243" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" t="s" s="0">
         <v>1511</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F243" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G243" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H243" t="s">
+      <c r="H243" t="s" s="0">
         <v>1512</v>
       </c>
-      <c r="I243" t="s">
+      <c r="I243" t="s" s="0">
         <v>1513</v>
       </c>
-      <c r="J243" t="s">
+      <c r="J243" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K243" s="191" t="s">
@@ -21963,34 +23520,34 @@
       <c r="L244" s="49"/>
     </row>
     <row r="245" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
+      <c r="A245" t="s" s="0">
         <v>1521</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" t="s" s="0">
         <v>1522</v>
       </c>
-      <c r="C245" t="s">
-        <v>14</v>
-      </c>
-      <c r="D245" t="s">
+      <c r="C245" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D245" t="s" s="0">
         <v>409</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" t="s" s="0">
         <v>1523</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F245" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G245" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="H245" t="s">
+      <c r="H245" t="s" s="0">
         <v>1524</v>
       </c>
-      <c r="I245" t="s">
+      <c r="I245" t="s" s="0">
         <v>1525</v>
       </c>
-      <c r="J245" t="s">
+      <c r="J245" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K245" s="191" t="s">
@@ -21999,34 +23556,34 @@
       <c r="L245" s="49"/>
     </row>
     <row r="246" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
+      <c r="A246" t="s" s="0">
         <v>1527</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" t="s" s="0">
         <v>1528</v>
       </c>
-      <c r="C246" t="s">
-        <v>14</v>
-      </c>
-      <c r="D246" t="s">
+      <c r="C246" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D246" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" t="s" s="0">
         <v>1529</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F246" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G246" t="s" s="0">
         <v>1530</v>
       </c>
-      <c r="H246" t="s">
+      <c r="H246" t="s" s="0">
         <v>1531</v>
       </c>
-      <c r="I246" t="s">
+      <c r="I246" t="s" s="0">
         <v>1532</v>
       </c>
-      <c r="J246" t="s">
+      <c r="J246" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K246" s="191" t="s">
@@ -22111,34 +23668,34 @@
       </c>
     </row>
     <row r="249" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
+      <c r="A249" t="s" s="0">
         <v>1545</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" t="s" s="0">
         <v>1546</v>
       </c>
-      <c r="C249" t="s">
-        <v>14</v>
-      </c>
-      <c r="D249" t="s">
+      <c r="C249" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D249" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" t="s" s="0">
         <v>1547</v>
       </c>
-      <c r="F249" t="s">
+      <c r="F249" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G249" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H249" t="s">
+      <c r="H249" t="s" s="0">
         <v>1548</v>
       </c>
-      <c r="I249" t="s">
+      <c r="I249" t="s" s="0">
         <v>1549</v>
       </c>
-      <c r="J249" t="s">
+      <c r="J249" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K249" s="191" t="s">
@@ -22291,34 +23848,34 @@
       <c r="L253" s="49"/>
     </row>
     <row r="254" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
+      <c r="A254" t="s" s="0">
         <v>1575</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" t="s" s="0">
         <v>1576</v>
       </c>
-      <c r="C254" t="s">
-        <v>14</v>
-      </c>
-      <c r="D254" t="s">
+      <c r="C254" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D254" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" t="s" s="0">
         <v>1577</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F254" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G254" t="s" s="0">
         <v>1530</v>
       </c>
-      <c r="H254" t="s">
+      <c r="H254" t="s" s="0">
         <v>1578</v>
       </c>
-      <c r="I254" t="s">
+      <c r="I254" t="s" s="0">
         <v>1579</v>
       </c>
-      <c r="J254" t="s">
+      <c r="J254" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K254" s="191" t="s">
@@ -22363,34 +23920,34 @@
       <c r="L255" s="49"/>
     </row>
     <row r="256" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
+      <c r="A256" t="s" s="0">
         <v>1587</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" t="s" s="0">
         <v>1588</v>
       </c>
-      <c r="C256" t="s">
-        <v>14</v>
-      </c>
-      <c r="D256" t="s">
+      <c r="C256" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D256" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E256" t="s" s="0">
         <v>1589</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F256" t="s" s="0">
         <v>681</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G256" t="s" s="0">
         <v>1590</v>
       </c>
-      <c r="H256" t="s">
+      <c r="H256" t="s" s="0">
         <v>1591</v>
       </c>
-      <c r="I256" t="s">
+      <c r="I256" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="J256" t="s">
+      <c r="J256" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K256" s="191" t="s">
@@ -22547,34 +24104,34 @@
       <c r="L260" s="49"/>
     </row>
     <row r="261" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
+      <c r="A261" t="s" s="0">
         <v>1617</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" t="s" s="0">
         <v>1618</v>
       </c>
-      <c r="C261" t="s">
-        <v>14</v>
-      </c>
-      <c r="D261" t="s">
+      <c r="C261" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D261" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E261" t="s" s="0">
         <v>1619</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F261" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G261" t="s">
+      <c r="G261" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H261" t="s">
+      <c r="H261" t="s" s="0">
         <v>1620</v>
       </c>
-      <c r="I261" t="s">
+      <c r="I261" t="s" s="0">
         <v>1621</v>
       </c>
-      <c r="J261" t="s">
+      <c r="J261" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K261" s="191" t="s">
@@ -22583,34 +24140,34 @@
       <c r="L261" s="49"/>
     </row>
     <row r="262" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
+      <c r="A262" t="s" s="0">
         <v>1623</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" t="s" s="0">
         <v>1624</v>
       </c>
-      <c r="C262" t="s">
-        <v>14</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="C262" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D262" t="s" s="0">
         <v>1625</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E262" t="s" s="0">
         <v>1626</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F262" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G262" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H262" t="s">
+      <c r="H262" t="s" s="0">
         <v>1627</v>
       </c>
-      <c r="I262" t="s">
+      <c r="I262" t="s" s="0">
         <v>1628</v>
       </c>
-      <c r="J262" t="s">
+      <c r="J262" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K262" s="191" t="s">
@@ -22625,7 +24182,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22667,6 +24224,2134 @@
       </c>
       <c r="L1" s="24" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>1640</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>1641</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>1642</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>1643</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>1644</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>1645</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="330">
+        <v>1646</v>
+      </c>
+      <c r="B10" t="s" s="330">
+        <v>1647</v>
+      </c>
+      <c r="C10" t="s" s="330">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s" s="330">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s" s="330">
+        <v>1648</v>
+      </c>
+      <c r="F10" t="s" s="330">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s" s="330">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s" s="330">
+        <v>1649</v>
+      </c>
+      <c r="I10" t="s" s="330">
+        <v>1650</v>
+      </c>
+      <c r="J10" t="s" s="330">
+        <v>1639</v>
+      </c>
+      <c r="K10" t="s" s="330">
+        <v>1651</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="331">
+        <v>1652</v>
+      </c>
+      <c r="B11" t="s" s="331">
+        <v>1653</v>
+      </c>
+      <c r="C11" t="s" s="331">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="331">
+        <v>171</v>
+      </c>
+      <c r="E11" t="s" s="331">
+        <v>330</v>
+      </c>
+      <c r="F11" t="s" s="331">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s" s="331">
+        <v>147</v>
+      </c>
+      <c r="H11" t="s" s="331">
+        <v>1654</v>
+      </c>
+      <c r="I11" t="s" s="331">
+        <v>332</v>
+      </c>
+      <c r="J11" t="s" s="331">
+        <v>1639</v>
+      </c>
+      <c r="K11" t="s" s="331">
+        <v>1655</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>1656</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>1657</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>1658</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>1659</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>1660</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>1661</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>1662</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>1663</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>1664</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>1665</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>1666</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>1667</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="332">
+        <v>1668</v>
+      </c>
+      <c r="B14" t="s" s="332">
+        <v>1669</v>
+      </c>
+      <c r="C14" t="s" s="332">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s" s="332">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s" s="332">
+        <v>1670</v>
+      </c>
+      <c r="F14" t="s" s="332">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s" s="332">
+        <v>147</v>
+      </c>
+      <c r="H14" t="s" s="332">
+        <v>1671</v>
+      </c>
+      <c r="I14" t="s" s="332">
+        <v>1672</v>
+      </c>
+      <c r="J14" t="s" s="332">
+        <v>1639</v>
+      </c>
+      <c r="K14" t="s" s="332">
+        <v>1673</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="333">
+        <v>340</v>
+      </c>
+      <c r="B15" t="s" s="333">
+        <v>341</v>
+      </c>
+      <c r="C15" t="s" s="333">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="333">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s" s="333">
+        <v>342</v>
+      </c>
+      <c r="F15" t="s" s="333">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s" s="333">
+        <v>147</v>
+      </c>
+      <c r="H15" t="s" s="333">
+        <v>343</v>
+      </c>
+      <c r="I15" t="s" s="333">
+        <v>344</v>
+      </c>
+      <c r="J15" t="s" s="333">
+        <v>1639</v>
+      </c>
+      <c r="K15" t="s" s="333">
+        <v>345</v>
+      </c>
+      <c r="L15" t="s" s="0">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>1674</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>1675</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>1676</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>1677</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>1678</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>1679</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>579</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>1680</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>1681</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>1682</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>1683</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>1684</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>1685</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>1686</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>1687</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>1688</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>1689</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>1690</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>1691</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>725</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>728</v>
+      </c>
+      <c r="L22" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>1692</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>1693</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>1694</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>1695</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>1696</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>1697</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>772</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>776</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>778</v>
+      </c>
+      <c r="L24" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>815</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>820</v>
+      </c>
+      <c r="L25" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>834</v>
+      </c>
+      <c r="B26" t="s" s="334">
+        <v>835</v>
+      </c>
+      <c r="C26" t="s" s="334">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s" s="334">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s" s="334">
+        <v>836</v>
+      </c>
+      <c r="F26" t="s" s="334">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s" s="334">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s" s="334">
+        <v>837</v>
+      </c>
+      <c r="I26" t="s" s="334">
+        <v>838</v>
+      </c>
+      <c r="J26" t="s" s="334">
+        <v>1639</v>
+      </c>
+      <c r="K26" t="s" s="334">
+        <v>839</v>
+      </c>
+      <c r="L26" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>1698</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>1699</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>1700</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>1701</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>1702</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K27" t="s" s="0">
+        <v>1703</v>
+      </c>
+      <c r="L27" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>1704</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>1705</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>1706</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>1707</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>1708</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>1709</v>
+      </c>
+      <c r="L28" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>1710</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>1711</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>1712</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>1713</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>1714</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K29" t="s" s="0">
+        <v>1715</v>
+      </c>
+      <c r="L29" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>1716</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>1717</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>1718</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>1719</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>1720</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K30" t="s" s="0">
+        <v>1721</v>
+      </c>
+      <c r="L30" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>1722</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>1723</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>1724</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>1725</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>1726</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K31" t="s" s="0">
+        <v>1728</v>
+      </c>
+      <c r="L31" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>1729</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>1730</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>1731</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>1732</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>1733</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>1734</v>
+      </c>
+      <c r="L32" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>1735</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>1736</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>1737</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>1738</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>1739</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K33" t="s" s="0">
+        <v>1740</v>
+      </c>
+      <c r="L33" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>1741</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>1742</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>1743</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>1744</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>1745</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K34" t="s" s="0">
+        <v>1746</v>
+      </c>
+      <c r="L34" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>1747</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>1748</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>1749</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>1750</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>1751</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>1752</v>
+      </c>
+      <c r="L35" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>1107</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>1108</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>1109</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>1110</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>1111</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K36" t="s" s="0">
+        <v>1112</v>
+      </c>
+      <c r="L36" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="335">
+        <v>1753</v>
+      </c>
+      <c r="B37" t="s" s="335">
+        <v>1754</v>
+      </c>
+      <c r="C37" t="s" s="335">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s" s="335">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s" s="335">
+        <v>1755</v>
+      </c>
+      <c r="F37" t="s" s="335">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s" s="335">
+        <v>107</v>
+      </c>
+      <c r="H37" t="s" s="335">
+        <v>1756</v>
+      </c>
+      <c r="I37" t="s" s="335">
+        <v>1757</v>
+      </c>
+      <c r="J37" t="s" s="335">
+        <v>1639</v>
+      </c>
+      <c r="K37" t="s" s="335">
+        <v>1758</v>
+      </c>
+      <c r="L37" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="336">
+        <v>1759</v>
+      </c>
+      <c r="B38" t="s" s="336">
+        <v>1760</v>
+      </c>
+      <c r="C38" t="s" s="336">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s" s="336">
+        <v>223</v>
+      </c>
+      <c r="E38" t="s" s="336">
+        <v>1761</v>
+      </c>
+      <c r="F38" t="s" s="336">
+        <v>147</v>
+      </c>
+      <c r="G38" t="s" s="336">
+        <v>51</v>
+      </c>
+      <c r="H38" t="s" s="336">
+        <v>1762</v>
+      </c>
+      <c r="I38" t="s" s="336">
+        <v>1763</v>
+      </c>
+      <c r="J38" t="s" s="336">
+        <v>1639</v>
+      </c>
+      <c r="K38" t="s" s="336">
+        <v>1764</v>
+      </c>
+      <c r="L38" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>1765</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>1766</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>1767</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>1768</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>1769</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K39" t="s" s="0">
+        <v>1770</v>
+      </c>
+      <c r="L39" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>1771</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>1772</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>1773</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>1774</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>1775</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K40" t="s" s="0">
+        <v>1776</v>
+      </c>
+      <c r="L40" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>1777</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>1778</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>1779</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>1780</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>1781</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K41" t="s" s="0">
+        <v>1782</v>
+      </c>
+      <c r="L41" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>1783</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>1784</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>1785</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>1786</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>1787</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K42" t="s" s="0">
+        <v>1788</v>
+      </c>
+      <c r="L42" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>1789</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>1790</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>1791</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>1792</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>1793</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K43" t="s" s="0">
+        <v>1794</v>
+      </c>
+      <c r="L43" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>1795</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>1796</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>1797</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>1798</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>1799</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K44" t="s" s="0">
+        <v>1800</v>
+      </c>
+      <c r="L44" t="s" s="0">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>1801</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>1802</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>1803</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>1804</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>1805</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K45" t="s" s="0">
+        <v>1806</v>
+      </c>
+      <c r="L45" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="337">
+        <v>1807</v>
+      </c>
+      <c r="B46" t="s" s="337">
+        <v>1808</v>
+      </c>
+      <c r="C46" t="s" s="337">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s" s="337">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s" s="337">
+        <v>1809</v>
+      </c>
+      <c r="F46" t="s" s="337">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s" s="337">
+        <v>18</v>
+      </c>
+      <c r="H46" t="s" s="337">
+        <v>1810</v>
+      </c>
+      <c r="I46" t="s" s="337">
+        <v>1811</v>
+      </c>
+      <c r="J46" t="s" s="337">
+        <v>1639</v>
+      </c>
+      <c r="K46" t="s" s="337">
+        <v>1812</v>
+      </c>
+      <c r="L46" t="s" s="0">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="338">
+        <v>1813</v>
+      </c>
+      <c r="B47" t="s" s="338">
+        <v>1814</v>
+      </c>
+      <c r="C47" t="s" s="338">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s" s="338">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s" s="338">
+        <v>1815</v>
+      </c>
+      <c r="F47" t="s" s="338">
+        <v>58</v>
+      </c>
+      <c r="G47" t="s" s="338">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s" s="338">
+        <v>1816</v>
+      </c>
+      <c r="I47" t="s" s="338">
+        <v>1817</v>
+      </c>
+      <c r="J47" t="s" s="338">
+        <v>1639</v>
+      </c>
+      <c r="K47" t="s" s="338">
+        <v>1818</v>
+      </c>
+      <c r="L47" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>1820</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>1821</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>1822</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>1823</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K48" t="s" s="0">
+        <v>1824</v>
+      </c>
+      <c r="L48" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>1825</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>1826</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>1827</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>1828</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>1829</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K49" t="s" s="0">
+        <v>1830</v>
+      </c>
+      <c r="L49" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>1287</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>1288</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>1289</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s" s="0">
+        <v>1290</v>
+      </c>
+      <c r="I50" t="s" s="0">
+        <v>1291</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K50" t="s" s="0">
+        <v>1292</v>
+      </c>
+      <c r="L50" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>1831</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>1832</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>1833</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="H51" t="s" s="0">
+        <v>1834</v>
+      </c>
+      <c r="I51" t="s" s="0">
+        <v>1835</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K51" t="s" s="0">
+        <v>1836</v>
+      </c>
+      <c r="L51" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>1837</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>1838</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H52" t="s" s="0">
+        <v>1840</v>
+      </c>
+      <c r="I52" t="s" s="0">
+        <v>1841</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K52" t="s" s="0">
+        <v>1842</v>
+      </c>
+      <c r="L52" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>1843</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>1844</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>1845</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>1846</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>1847</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K53" t="s" s="0">
+        <v>1848</v>
+      </c>
+      <c r="L53" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>1849</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>1850</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>1851</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H54" t="s" s="0">
+        <v>1852</v>
+      </c>
+      <c r="I54" t="s" s="0">
+        <v>1853</v>
+      </c>
+      <c r="J54" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K54" t="s" s="0">
+        <v>1854</v>
+      </c>
+      <c r="L54" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>1855</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>1856</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>1857</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H55" t="s" s="0">
+        <v>1858</v>
+      </c>
+      <c r="I55" t="s" s="0">
+        <v>1859</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K55" t="s" s="0">
+        <v>1860</v>
+      </c>
+      <c r="L55" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>1861</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>1862</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>1863</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H56" t="s" s="0">
+        <v>1864</v>
+      </c>
+      <c r="I56" t="s" s="0">
+        <v>1865</v>
+      </c>
+      <c r="J56" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K56" t="s" s="0">
+        <v>1866</v>
+      </c>
+      <c r="L56" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>1867</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>1868</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>1869</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H57" t="s" s="0">
+        <v>1870</v>
+      </c>
+      <c r="I57" t="s" s="0">
+        <v>1871</v>
+      </c>
+      <c r="J57" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="K57" t="s" s="0">
+        <v>1872</v>
+      </c>
+      <c r="L57" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
